--- a/docs/countries.xlsx
+++ b/docs/countries.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cleft\source\github\indice-co\Indice.AspNet\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GiorgosManoltzas\source\repos\Indice.AspNet\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB4D6EAD-4A83-451E-A06E-8346173755E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1F60456-7286-4280-9B93-584EC4655557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-7950" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{F27CBF66-80AD-4D0E-9489-16D841A03BA9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{F27CBF66-80AD-4D0E-9489-16D841A03BA9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -7201,15 +7201,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.73046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.46484375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.1328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7238,7 +7238,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -7267,7 +7267,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -7296,7 +7296,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
@@ -7325,7 +7325,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="27" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
@@ -7354,7 +7354,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>33</v>
       </c>
@@ -7383,7 +7383,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>39</v>
       </c>
@@ -7412,7 +7412,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>2</v>
       </c>
@@ -7441,7 +7441,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>50</v>
       </c>
@@ -7470,7 +7470,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>56</v>
       </c>
@@ -7497,7 +7497,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="27" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>61</v>
       </c>
@@ -7526,7 +7526,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>13</v>
       </c>
@@ -7555,7 +7555,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>73</v>
       </c>
@@ -7584,7 +7584,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="27" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>75</v>
       </c>
@@ -7613,7 +7613,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="27" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>85</v>
       </c>
@@ -7642,7 +7642,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="27" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>91</v>
       </c>
@@ -7669,7 +7669,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>96</v>
       </c>
@@ -7698,7 +7698,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="57" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>103</v>
       </c>
@@ -7727,7 +7727,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="27" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>110</v>
       </c>
@@ -7756,7 +7756,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>115</v>
       </c>
@@ -7785,7 +7785,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>122</v>
       </c>
@@ -7814,7 +7814,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>128</v>
       </c>
@@ -7843,7 +7843,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>117</v>
       </c>
@@ -7872,7 +7872,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>141</v>
       </c>
@@ -7901,7 +7901,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="27" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>146</v>
       </c>
@@ -7930,7 +7930,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="27" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>153</v>
       </c>
@@ -7959,7 +7959,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>160</v>
       </c>
@@ -7988,7 +7988,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="27" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>166</v>
       </c>
@@ -8017,7 +8017,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="54" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:9" ht="57" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>155</v>
       </c>
@@ -8046,7 +8046,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>176</v>
       </c>
@@ -8075,7 +8075,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>182</v>
       </c>
@@ -8100,7 +8100,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>186</v>
       </c>
@@ -8129,7 +8129,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>192</v>
       </c>
@@ -8158,7 +8158,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="27" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>197</v>
       </c>
@@ -8187,7 +8187,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>202</v>
       </c>
@@ -8214,7 +8214,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="27" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>206</v>
       </c>
@@ -8243,7 +8243,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>148</v>
       </c>
@@ -8272,7 +8272,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="27" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>218</v>
       </c>
@@ -8301,7 +8301,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>223</v>
       </c>
@@ -8330,7 +8330,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>229</v>
       </c>
@@ -8359,7 +8359,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="57" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>235</v>
       </c>
@@ -8388,7 +8388,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>242</v>
       </c>
@@ -8417,7 +8417,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>237</v>
       </c>
@@ -8446,7 +8446,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>254</v>
       </c>
@@ -8475,7 +8475,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>261</v>
       </c>
@@ -8504,7 +8504,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>231</v>
       </c>
@@ -8533,7 +8533,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="27" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>273</v>
       </c>
@@ -8562,7 +8562,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="27" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>279</v>
       </c>
@@ -8591,7 +8591,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>285</v>
       </c>
@@ -8620,7 +8620,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>291</v>
       </c>
@@ -8649,7 +8649,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="27" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>297</v>
       </c>
@@ -8678,7 +8678,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>299</v>
       </c>
@@ -8707,7 +8707,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>310</v>
       </c>
@@ -8736,7 +8736,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>316</v>
       </c>
@@ -8765,7 +8765,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="27" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>269</v>
       </c>
@@ -8794,7 +8794,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="40.5" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>325</v>
       </c>
@@ -8823,7 +8823,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>331</v>
       </c>
@@ -8852,7 +8852,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>337</v>
       </c>
@@ -8881,7 +8881,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>344</v>
       </c>
@@ -8910,7 +8910,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>351</v>
       </c>
@@ -8939,7 +8939,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="27" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>355</v>
       </c>
@@ -8968,7 +8968,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>362</v>
       </c>
@@ -8997,7 +8997,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="40.5" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>364</v>
       </c>
@@ -9026,7 +9026,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>374</v>
       </c>
@@ -9055,7 +9055,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>380</v>
       </c>
@@ -9084,7 +9084,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>386</v>
       </c>
@@ -9113,7 +9113,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>393</v>
       </c>
@@ -9142,7 +9142,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>399</v>
       </c>
@@ -9171,7 +9171,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>405</v>
       </c>
@@ -9200,7 +9200,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>411</v>
       </c>
@@ -9229,7 +9229,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="27" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>418</v>
       </c>
@@ -9258,7 +9258,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>424</v>
       </c>
@@ -9287,7 +9287,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>430</v>
       </c>
@@ -9316,7 +9316,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>435</v>
       </c>
@@ -9345,7 +9345,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>440</v>
       </c>
@@ -9374,7 +9374,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>445</v>
       </c>
@@ -9403,7 +9403,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>450</v>
       </c>
@@ -9432,7 +9432,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="27" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>456</v>
       </c>
@@ -9461,7 +9461,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>458</v>
       </c>
@@ -9490,7 +9490,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="40.5" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>469</v>
       </c>
@@ -9519,7 +9519,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>475</v>
       </c>
@@ -9548,7 +9548,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>482</v>
       </c>
@@ -9577,7 +9577,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="27" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>477</v>
       </c>
@@ -9606,7 +9606,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>493</v>
       </c>
@@ -9635,7 +9635,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="27" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>499</v>
       </c>
@@ -9664,7 +9664,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>503</v>
       </c>
@@ -9693,7 +9693,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>346</v>
       </c>
@@ -9722,7 +9722,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
         <v>513</v>
       </c>
@@ -9751,7 +9751,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>520</v>
       </c>
@@ -9780,7 +9780,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>525</v>
       </c>
@@ -9809,7 +9809,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>532</v>
       </c>
@@ -9838,7 +9838,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
         <v>538</v>
       </c>
@@ -9867,7 +9867,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>544</v>
       </c>
@@ -9896,7 +9896,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
         <v>550</v>
       </c>
@@ -9925,7 +9925,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>555</v>
       </c>
@@ -9954,7 +9954,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="27" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>562</v>
       </c>
@@ -9983,7 +9983,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>567</v>
       </c>
@@ -10012,7 +10012,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="57" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>572</v>
       </c>
@@ -10039,7 +10039,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="27" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>576</v>
       </c>
@@ -10068,7 +10068,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
         <v>583</v>
       </c>
@@ -10097,7 +10097,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="27" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>589</v>
       </c>
@@ -10126,7 +10126,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="27" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
         <v>596</v>
       </c>
@@ -10155,7 +10155,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>602</v>
       </c>
@@ -10184,7 +10184,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
         <v>608</v>
       </c>
@@ -10213,7 +10213,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="27" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>615</v>
       </c>
@@ -10242,7 +10242,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
         <v>622</v>
       </c>
@@ -10271,7 +10271,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="27" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>627</v>
       </c>
@@ -10300,7 +10300,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="57" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
         <v>633</v>
       </c>
@@ -10329,7 +10329,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="27" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>638</v>
       </c>
@@ -10358,7 +10358,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
         <v>645</v>
       </c>
@@ -10387,7 +10387,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="27" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>617</v>
       </c>
@@ -10416,7 +10416,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
         <v>656</v>
       </c>
@@ -10445,7 +10445,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="27" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>662</v>
       </c>
@@ -10474,7 +10474,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="27" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
         <v>667</v>
       </c>
@@ -10503,7 +10503,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>673</v>
       </c>
@@ -10532,7 +10532,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
         <v>679</v>
       </c>
@@ -10561,7 +10561,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>686</v>
       </c>
@@ -10590,7 +10590,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
         <v>692</v>
       </c>
@@ -10619,7 +10619,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="27" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>698</v>
       </c>
@@ -10648,7 +10648,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
         <v>705</v>
       </c>
@@ -10677,7 +10677,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>711</v>
       </c>
@@ -10706,7 +10706,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
         <v>716</v>
       </c>
@@ -10735,7 +10735,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>722</v>
       </c>
@@ -10764,7 +10764,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
         <v>707</v>
       </c>
@@ -10793,7 +10793,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="27" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>734</v>
       </c>
@@ -10822,7 +10822,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
         <v>741</v>
       </c>
@@ -10851,7 +10851,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>747</v>
       </c>
@@ -10880,7 +10880,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="27" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
         <v>753</v>
       </c>
@@ -10909,7 +10909,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>759</v>
       </c>
@@ -10938,7 +10938,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
         <v>766</v>
       </c>
@@ -10967,7 +10967,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>772</v>
       </c>
@@ -10996,7 +10996,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="27" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
         <v>778</v>
       </c>
@@ -11025,7 +11025,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="27" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>785</v>
       </c>
@@ -11054,7 +11054,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
         <v>774</v>
       </c>
@@ -11083,7 +11083,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>792</v>
       </c>
@@ -11112,7 +11112,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="136" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
         <v>803</v>
       </c>
@@ -11141,7 +11141,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>807</v>
       </c>
@@ -11170,7 +11170,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
         <v>814</v>
       </c>
@@ -11199,7 +11199,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>820</v>
       </c>
@@ -11228,7 +11228,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
         <v>827</v>
       </c>
@@ -11257,7 +11257,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="141" spans="1:9" ht="27" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>832</v>
       </c>
@@ -11286,7 +11286,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="142" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
         <v>838</v>
       </c>
@@ -11315,7 +11315,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="143" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>844</v>
       </c>
@@ -11344,7 +11344,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="144" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
         <v>849</v>
       </c>
@@ -11373,7 +11373,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="145" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>855</v>
       </c>
@@ -11402,7 +11402,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="146" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
         <v>861</v>
       </c>
@@ -11431,7 +11431,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>867</v>
       </c>
@@ -11460,7 +11460,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="148" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
         <v>873</v>
       </c>
@@ -11489,7 +11489,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="149" spans="1:9" ht="27" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>829</v>
       </c>
@@ -11518,7 +11518,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
         <v>822</v>
       </c>
@@ -11547,7 +11547,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="151" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>887</v>
       </c>
@@ -11576,7 +11576,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="152" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
         <v>893</v>
       </c>
@@ -11605,7 +11605,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="153" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>899</v>
       </c>
@@ -11634,7 +11634,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="154" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
         <v>905</v>
       </c>
@@ -11663,7 +11663,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>909</v>
       </c>
@@ -11692,7 +11692,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="156" spans="1:9" ht="27" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
         <v>914</v>
       </c>
@@ -11721,7 +11721,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>920</v>
       </c>
@@ -11750,7 +11750,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="27" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A158" s="4" t="s">
         <v>925</v>
       </c>
@@ -11779,7 +11779,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="27" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>932</v>
       </c>
@@ -11808,7 +11808,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="160" spans="1:9" ht="27" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="s">
         <v>938</v>
       </c>
@@ -11837,7 +11837,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="161" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>944</v>
       </c>
@@ -11866,7 +11866,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="162" spans="1:9" ht="27" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
         <v>26</v>
       </c>
@@ -11895,7 +11895,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="163" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>956</v>
       </c>
@@ -11924,7 +11924,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A164" s="4" t="s">
         <v>961</v>
       </c>
@@ -11953,7 +11953,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="165" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>968</v>
       </c>
@@ -11982,7 +11982,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
         <v>963</v>
       </c>
@@ -12011,7 +12011,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="167" spans="1:9" ht="27" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>973</v>
       </c>
@@ -12040,7 +12040,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="168" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="s">
         <v>984</v>
       </c>
@@ -12069,7 +12069,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>990</v>
       </c>
@@ -12098,7 +12098,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="170" spans="1:9" ht="27" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
         <v>996</v>
       </c>
@@ -12127,7 +12127,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>1002</v>
       </c>
@@ -12156,7 +12156,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="4" t="s">
         <v>979</v>
       </c>
@@ -12185,7 +12185,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="173" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>1010</v>
       </c>
@@ -12214,7 +12214,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A174" s="4" t="s">
         <v>1016</v>
       </c>
@@ -12243,7 +12243,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="175" spans="1:9" ht="27" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>1022</v>
       </c>
@@ -12272,7 +12272,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
         <v>1029</v>
       </c>
@@ -12301,7 +12301,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="177" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>1035</v>
       </c>
@@ -12330,7 +12330,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="178" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
         <v>1041</v>
       </c>
@@ -12359,7 +12359,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="179" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>1048</v>
       </c>
@@ -12388,7 +12388,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="180" spans="1:9" ht="27" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A180" s="4" t="s">
         <v>1055</v>
       </c>
@@ -12417,7 +12417,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>1061</v>
       </c>
@@ -12446,7 +12446,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="182" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
         <v>1024</v>
       </c>
@@ -12475,7 +12475,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="183" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>1072</v>
       </c>
@@ -12504,7 +12504,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="184" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A184" s="4" t="s">
         <v>1078</v>
       </c>
@@ -12533,7 +12533,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="185" spans="1:9" ht="40.5" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>1085</v>
       </c>
@@ -12562,7 +12562,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A186" s="4" t="s">
         <v>1092</v>
       </c>
@@ -12591,7 +12591,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="187" spans="1:9" ht="27" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>1099</v>
       </c>
@@ -12620,7 +12620,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="188" spans="1:9" ht="27" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A188" s="4" t="s">
         <v>1104</v>
       </c>
@@ -12649,7 +12649,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>1110</v>
       </c>
@@ -12678,7 +12678,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="190" spans="1:9" ht="27" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A190" s="4" t="s">
         <v>1115</v>
       </c>
@@ -12707,7 +12707,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="191" spans="1:9" ht="27" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>1120</v>
       </c>
@@ -12736,7 +12736,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="192" spans="1:9" ht="27" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A192" s="4" t="s">
         <v>1126</v>
       </c>
@@ -12765,7 +12765,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>1132</v>
       </c>
@@ -12794,7 +12794,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A194" s="4" t="s">
         <v>1138</v>
       </c>
@@ -12823,7 +12823,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="195" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>67</v>
       </c>
@@ -12852,7 +12852,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A196" s="4" t="s">
         <v>1068</v>
       </c>
@@ -12881,7 +12881,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>718</v>
       </c>
@@ -12910,7 +12910,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="198" spans="1:9" ht="27" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A198" s="4" t="s">
         <v>1159</v>
       </c>
@@ -12939,7 +12939,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="27" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>1155</v>
       </c>
@@ -12968,7 +12968,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="200" spans="1:9" ht="27" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A200" s="4" t="s">
         <v>1172</v>
       </c>
@@ -12997,7 +12997,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="201" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>1178</v>
       </c>
@@ -13026,7 +13026,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="202" spans="1:9" ht="27" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A202" s="4" t="s">
         <v>1183</v>
       </c>
@@ -13055,7 +13055,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="203" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>1189</v>
       </c>
@@ -13084,7 +13084,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="204" spans="1:9" ht="27" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A204" s="4" t="s">
         <v>1195</v>
       </c>
@@ -13113,7 +13113,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="205" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>1202</v>
       </c>
@@ -13142,7 +13142,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="206" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A206" s="4" t="s">
         <v>1208</v>
       </c>
@@ -13171,7 +13171,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>1174</v>
       </c>
@@ -13200,7 +13200,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="208" spans="1:9" ht="27" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A208" s="4" t="s">
         <v>1217</v>
       </c>
@@ -13229,7 +13229,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="27" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>1223</v>
       </c>
@@ -13258,7 +13258,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="210" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A210" s="4" t="s">
         <v>1229</v>
       </c>
@@ -13287,7 +13287,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="211" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>768</v>
       </c>
@@ -13316,7 +13316,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="212" spans="1:9" ht="40.5" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A212" s="4" t="s">
         <v>1191</v>
       </c>
@@ -13345,7 +13345,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="213" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>540</v>
       </c>
@@ -13374,7 +13374,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="214" spans="1:9" ht="27" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A214" s="4" t="s">
         <v>1250</v>
       </c>
@@ -13403,7 +13403,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="215" spans="1:9" ht="27" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>256</v>
       </c>
@@ -13432,7 +13432,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="216" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A216" s="4" t="s">
         <v>1262</v>
       </c>
@@ -13461,7 +13461,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="217" spans="1:9" ht="27" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>1268</v>
       </c>
@@ -13490,7 +13490,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="218" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A218" s="4" t="s">
         <v>1274</v>
       </c>
@@ -13519,7 +13519,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>1280</v>
       </c>
@@ -13548,7 +13548,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="220" spans="1:9" ht="27" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A220" s="4" t="s">
         <v>1287</v>
       </c>
@@ -13577,7 +13577,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="221" spans="1:9" ht="27" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>1293</v>
       </c>
@@ -13606,7 +13606,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" s="4" t="s">
         <v>1264</v>
       </c>
@@ -13633,7 +13633,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>1301</v>
       </c>
@@ -13662,7 +13662,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="224" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A224" s="4" t="s">
         <v>1310</v>
       </c>
@@ -13691,7 +13691,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>1317</v>
       </c>
@@ -13720,7 +13720,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="226" spans="1:9" ht="27" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A226" s="4" t="s">
         <v>1282</v>
       </c>
@@ -13749,7 +13749,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>1328</v>
       </c>
@@ -13778,7 +13778,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="228" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A228" s="4" t="s">
         <v>1305</v>
       </c>
@@ -13807,7 +13807,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>1340</v>
       </c>
@@ -13836,7 +13836,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A230" s="4" t="s">
         <v>1345</v>
       </c>
@@ -13865,7 +13865,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>1351</v>
       </c>
@@ -13894,7 +13894,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" s="4" t="s">
         <v>1357</v>
       </c>
@@ -13923,7 +13923,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="233" spans="1:9" ht="27" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>1364</v>
       </c>
@@ -13952,7 +13952,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="234" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A234" s="4" t="s">
         <v>1370</v>
       </c>
@@ -13977,7 +13977,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="235" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>1374</v>
       </c>
@@ -14006,7 +14006,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="236" spans="1:9" ht="27" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A236" s="4" t="s">
         <v>1380</v>
       </c>
@@ -14035,7 +14035,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="237" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>1386</v>
       </c>
@@ -14064,7 +14064,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="238" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A238" s="4" t="s">
         <v>1392</v>
       </c>
@@ -14093,7 +14093,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="239" spans="1:9" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>1397</v>
       </c>
@@ -14122,7 +14122,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A240" s="4" t="s">
         <v>1402</v>
       </c>
@@ -14151,7 +14151,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="241" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>1408</v>
       </c>
@@ -14180,7 +14180,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="242" spans="1:9" ht="40.5" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A242" s="4" t="s">
         <v>1410</v>
       </c>
@@ -14209,7 +14209,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>1419</v>
       </c>
@@ -14238,7 +14238,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A244" s="4" t="s">
         <v>1426</v>
       </c>
@@ -14267,7 +14267,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="245" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>1432</v>
       </c>
@@ -14296,7 +14296,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A246" s="4" t="s">
         <v>1437</v>
       </c>
@@ -14325,7 +14325,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>1442</v>
       </c>
@@ -14354,7 +14354,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A248" s="4" t="s">
         <v>1449</v>
       </c>
@@ -14383,7 +14383,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="249" spans="1:9" ht="27" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>1456</v>
       </c>
@@ -14412,7 +14412,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="250" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A250" s="4" t="s">
         <v>1461</v>
       </c>
@@ -14441,7 +14441,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>1468</v>
       </c>
@@ -14470,7 +14470,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A252" s="4" t="s">
         <v>1474</v>
       </c>
@@ -14764,16 +14764,16 @@
   <dimension ref="A1:AB252"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="H1" sqref="H1:H252"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="37.53125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.3984375" customWidth="1"/>
+    <col min="4" max="4" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -14796,8 +14796,8 @@
         <v>1481</v>
       </c>
       <c r="H1" t="str">
-        <f>_xlfn.CONCAT("{ new CountryInfo(""",F1,""", """,A1,""", ",C1,", """,D1,""", """,E1,""", """,G1,""", """,AB1,""") },")</f>
-        <v>{ new CountryInfo("AS", "AF", 4, "Afghanistan", "Kabul", "prs,ps,uz", "93") },</v>
+        <f>_xlfn.CONCAT("{ new CountryInfo(""",F1,""", """,A1,""",""",B1,""", ",C1,", """,D1,""", """,E1,""", """,G1,""", """,AB1,""") },")</f>
+        <v>{ new CountryInfo("AS", "AF","AFG", 4, "Afghanistan", "Kabul", "prs,ps,uz", "93") },</v>
       </c>
       <c r="S1" t="s">
         <v>14</v>
@@ -14831,7 +14831,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>91</v>
       </c>
@@ -14854,8 +14854,8 @@
         <v>1482</v>
       </c>
       <c r="H2" t="str">
-        <f t="shared" ref="H2:H65" si="0">_xlfn.CONCAT("{ new CountryInfo(""",F2,""", """,A2,""", ",C2,", """,D2,""", """,E2,""", """,G2,""", """,AB2,""") },")</f>
-        <v>{ new CountryInfo("EU", "AX", 248, "Åland", "Mariehamn", "sv", "358-18") },</v>
+        <f t="shared" ref="H2:H65" si="0">_xlfn.CONCAT("{ new CountryInfo(""",F2,""", """,A2,""",""",B2,""", ",C2,", """,D2,""", """,E2,""", """,G2,""", """,AB2,""") },")</f>
+        <v>{ new CountryInfo("EU", "AX","ALA", 248, "Åland", "Mariehamn", "sv", "358-18") },</v>
       </c>
       <c r="S2" t="s">
         <v>91</v>
@@ -14886,7 +14886,7 @@
         <v>358-18</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -14910,7 +14910,7 @@
       </c>
       <c r="H3" t="str">
         <f t="shared" si="0"/>
-        <v>{ new CountryInfo("EU", "AL", 8, "Albania", "Tirana", "sq", "355") },</v>
+        <v>{ new CountryInfo("EU", "AL","ALB", 8, "Albania", "Tirana", "sq", "355") },</v>
       </c>
       <c r="S3" t="s">
         <v>33</v>
@@ -14944,7 +14944,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>374</v>
       </c>
@@ -14968,7 +14968,7 @@
       </c>
       <c r="H4" t="str">
         <f t="shared" si="0"/>
-        <v>{ new CountryInfo("AF", "DZ", 12, "Algeria", "Algiers", "ar,fr,kab,tzm", "213") },</v>
+        <v>{ new CountryInfo("AF", "DZ","DZA", 12, "Algeria", "Algiers", "ar,fr,kab,tzm", "213") },</v>
       </c>
       <c r="S4" t="s">
         <v>374</v>
@@ -15002,7 +15002,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -15026,7 +15026,7 @@
       </c>
       <c r="H5" t="str">
         <f t="shared" si="0"/>
-        <v>{ new CountryInfo("OC", "AS", 16, "American Samoa", "Pago Pago", "en", "1-684") },</v>
+        <v>{ new CountryInfo("OC", "AS","ASM", 16, "American Samoa", "Pago Pago", "en", "1-684") },</v>
       </c>
       <c r="S5" t="s">
         <v>13</v>
@@ -15060,7 +15060,7 @@
         <v>1-684</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -15084,7 +15084,7 @@
       </c>
       <c r="H6" t="str">
         <f t="shared" si="0"/>
-        <v>{ new CountryInfo("EU", "AD", 20, "Andorra", "Andorra la Vella", "ca", "376") },</v>
+        <v>{ new CountryInfo("EU", "AD","AND", 20, "Andorra", "Andorra la Vella", "ca", "376") },</v>
       </c>
       <c r="S6" t="s">
         <v>0</v>
@@ -15118,7 +15118,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -15142,7 +15142,7 @@
       </c>
       <c r="H7" t="str">
         <f t="shared" si="0"/>
-        <v>{ new CountryInfo("AF", "AO", 24, "Angola", "Luanda", "ln,pt", "244") },</v>
+        <v>{ new CountryInfo("AF", "AO","AGO", 24, "Angola", "Luanda", "ln,pt", "244") },</v>
       </c>
       <c r="S7" t="s">
         <v>50</v>
@@ -15176,7 +15176,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -15200,7 +15200,7 @@
       </c>
       <c r="H8" t="str">
         <f t="shared" si="0"/>
-        <v>{ new CountryInfo("NA", "AI", 660, "Anguilla", "The Valley", "en", "1-264") },</v>
+        <v>{ new CountryInfo("NA", "AI","AIA", 660, "Anguilla", "The Valley", "en", "1-264") },</v>
       </c>
       <c r="S8" t="s">
         <v>27</v>
@@ -15234,7 +15234,7 @@
         <v>1-264</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>56</v>
       </c>
@@ -15255,7 +15255,7 @@
       </c>
       <c r="H9" t="str">
         <f t="shared" si="0"/>
-        <v>{ new CountryInfo("AN", "AQ", 10, "Antarctica", "", "en", "672") },</v>
+        <v>{ new CountryInfo("AN", "AQ","ATA", 10, "Antarctica", "", "en", "672") },</v>
       </c>
       <c r="S9" t="s">
         <v>56</v>
@@ -15286,7 +15286,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -15310,7 +15310,7 @@
       </c>
       <c r="H10" t="str">
         <f t="shared" si="0"/>
-        <v>{ new CountryInfo("NA", "AG", 28, "Antigua and Barbuda", "St. John's", "en", "1-268") },</v>
+        <v>{ new CountryInfo("NA", "AG","ATG", 28, "Antigua and Barbuda", "St. John's", "en", "1-268") },</v>
       </c>
       <c r="S10" t="s">
         <v>20</v>
@@ -15344,7 +15344,7 @@
         <v>1-268</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>61</v>
       </c>
@@ -15368,7 +15368,7 @@
       </c>
       <c r="H11" t="str">
         <f t="shared" si="0"/>
-        <v>{ new CountryInfo("SA", "AR", 32, "Argentina", "Buenos Aires", "es", "54") },</v>
+        <v>{ new CountryInfo("SA", "AR","ARG", 32, "Argentina", "Buenos Aires", "es", "54") },</v>
       </c>
       <c r="S11" t="s">
         <v>61</v>
@@ -15402,7 +15402,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -15426,7 +15426,7 @@
       </c>
       <c r="H12" t="str">
         <f t="shared" si="0"/>
-        <v>{ new CountryInfo("AS", "AM", 51, "Armenia", "Yerevan", "hy", "374") },</v>
+        <v>{ new CountryInfo("AS", "AM","ARM", 51, "Armenia", "Yerevan", "hy", "374") },</v>
       </c>
       <c r="S12" t="s">
         <v>39</v>
@@ -15460,7 +15460,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>85</v>
       </c>
@@ -15484,7 +15484,7 @@
       </c>
       <c r="H13" t="str">
         <f t="shared" si="0"/>
-        <v>{ new CountryInfo("NA", "AW", 533, "Aruba", "Oranjestad", "nl", "297") },</v>
+        <v>{ new CountryInfo("NA", "AW","ABW", 533, "Aruba", "Oranjestad", "nl", "297") },</v>
       </c>
       <c r="S13" t="s">
         <v>85</v>
@@ -15518,7 +15518,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>75</v>
       </c>
@@ -15542,7 +15542,7 @@
       </c>
       <c r="H14" t="str">
         <f t="shared" si="0"/>
-        <v>{ new CountryInfo("OC", "AU", 36, "Australia", "Canberra", "en", "61") },</v>
+        <v>{ new CountryInfo("OC", "AU","AUS", 36, "Australia", "Canberra", "en", "61") },</v>
       </c>
       <c r="S14" t="s">
         <v>75</v>
@@ -15576,7 +15576,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>73</v>
       </c>
@@ -15600,7 +15600,7 @@
       </c>
       <c r="H15" t="str">
         <f t="shared" si="0"/>
-        <v>{ new CountryInfo("EU", "AT", 40, "Austria", "Vienna", "de,en", "43") },</v>
+        <v>{ new CountryInfo("EU", "AT","AUT", 40, "Austria", "Vienna", "de,en", "43") },</v>
       </c>
       <c r="S15" t="s">
         <v>73</v>
@@ -15634,7 +15634,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>96</v>
       </c>
@@ -15658,7 +15658,7 @@
       </c>
       <c r="H16" t="str">
         <f t="shared" si="0"/>
-        <v>{ new CountryInfo("AS", "AZ", 31, "Azerbaijan", "Baku", "az", "994") },</v>
+        <v>{ new CountryInfo("AS", "AZ","AZE", 31, "Azerbaijan", "Baku", "az", "994") },</v>
       </c>
       <c r="S16" t="s">
         <v>96</v>
@@ -15692,7 +15692,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>192</v>
       </c>
@@ -15716,7 +15716,7 @@
       </c>
       <c r="H17" t="str">
         <f t="shared" si="0"/>
-        <v>{ new CountryInfo("NA", "BS", 44, "Bahamas", "Nassau", "en", "1-242") },</v>
+        <v>{ new CountryInfo("NA", "BS","BHS", 44, "Bahamas", "Nassau", "en", "1-242") },</v>
       </c>
       <c r="S17" t="s">
         <v>192</v>
@@ -15750,7 +15750,7 @@
         <v>1-242</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>141</v>
       </c>
@@ -15774,7 +15774,7 @@
       </c>
       <c r="H18" t="str">
         <f t="shared" si="0"/>
-        <v>{ new CountryInfo("AS", "BH", 48, "Bahrain", "Manama", "ar", "973") },</v>
+        <v>{ new CountryInfo("AS", "BH","BHR", 48, "Bahrain", "Manama", "ar", "973") },</v>
       </c>
       <c r="S18" t="s">
         <v>141</v>
@@ -15808,7 +15808,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>115</v>
       </c>
@@ -15832,7 +15832,7 @@
       </c>
       <c r="H19" t="str">
         <f t="shared" si="0"/>
-        <v>{ new CountryInfo("AS", "BD", 50, "Bangladesh", "Dhaka", "bn", "880") },</v>
+        <v>{ new CountryInfo("AS", "BD","BGD", 50, "Bangladesh", "Dhaka", "bn", "880") },</v>
       </c>
       <c r="S19" t="s">
         <v>115</v>
@@ -15866,7 +15866,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>110</v>
       </c>
@@ -15890,7 +15890,7 @@
       </c>
       <c r="H20" t="str">
         <f t="shared" si="0"/>
-        <v>{ new CountryInfo("NA", "BB", 52, "Barbados", "Bridgetown", "en", "1-246") },</v>
+        <v>{ new CountryInfo("NA", "BB","BRB", 52, "Barbados", "Bridgetown", "en", "1-246") },</v>
       </c>
       <c r="S20" t="s">
         <v>110</v>
@@ -15924,7 +15924,7 @@
         <v>1-246</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>148</v>
       </c>
@@ -15948,7 +15948,7 @@
       </c>
       <c r="H21" t="str">
         <f t="shared" si="0"/>
-        <v>{ new CountryInfo("EU", "BY", 112, "Belarus", "Minsk", "be,ru", "375") },</v>
+        <v>{ new CountryInfo("EU", "BY","BLR", 112, "Belarus", "Minsk", "be,ru", "375") },</v>
       </c>
       <c r="S21" t="s">
         <v>148</v>
@@ -15982,7 +15982,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>122</v>
       </c>
@@ -16006,7 +16006,7 @@
       </c>
       <c r="H22" t="str">
         <f t="shared" si="0"/>
-        <v>{ new CountryInfo("EU", "BE", 56, "Belgium", "Brussels", "fr,de,en,nl", "32") },</v>
+        <v>{ new CountryInfo("EU", "BE","BEL", 56, "Belgium", "Brussels", "fr,de,en,nl", "32") },</v>
       </c>
       <c r="S22" t="s">
         <v>122</v>
@@ -16040,7 +16040,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>218</v>
       </c>
@@ -16064,7 +16064,7 @@
       </c>
       <c r="H23" t="str">
         <f t="shared" si="0"/>
-        <v>{ new CountryInfo("NA", "BZ", 84, "Belize", "Belmopan", "en", "501") },</v>
+        <v>{ new CountryInfo("NA", "BZ","BLZ", 84, "Belize", "Belmopan", "en", "501") },</v>
       </c>
       <c r="S23" t="s">
         <v>218</v>
@@ -16098,7 +16098,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>153</v>
       </c>
@@ -16122,7 +16122,7 @@
       </c>
       <c r="H24" t="str">
         <f t="shared" si="0"/>
-        <v>{ new CountryInfo("AF", "BJ", 204, "Benin", "Porto-Novo", "fr,yo", "229") },</v>
+        <v>{ new CountryInfo("AF", "BJ","BEN", 204, "Benin", "Porto-Novo", "fr,yo", "229") },</v>
       </c>
       <c r="S24" t="s">
         <v>153</v>
@@ -16156,7 +16156,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>166</v>
       </c>
@@ -16180,7 +16180,7 @@
       </c>
       <c r="H25" t="str">
         <f t="shared" si="0"/>
-        <v>{ new CountryInfo("NA", "BM", 60, "Bermuda", "Hamilton", "en", "1-441") },</v>
+        <v>{ new CountryInfo("NA", "BM","BMU", 60, "Bermuda", "Hamilton", "en", "1-441") },</v>
       </c>
       <c r="S25" t="s">
         <v>166</v>
@@ -16214,7 +16214,7 @@
         <v>1-441</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>197</v>
       </c>
@@ -16238,7 +16238,7 @@
       </c>
       <c r="H26" t="str">
         <f t="shared" si="0"/>
-        <v>{ new CountryInfo("AS", "BT", 64, "Bhutan", "Thimphu", "dz", "975") },</v>
+        <v>{ new CountryInfo("AS", "BT","BTN", 64, "Bhutan", "Thimphu", "dz", "975") },</v>
       </c>
       <c r="S26" t="s">
         <v>197</v>
@@ -16272,7 +16272,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>176</v>
       </c>
@@ -16296,7 +16296,7 @@
       </c>
       <c r="H27" t="str">
         <f t="shared" si="0"/>
-        <v>{ new CountryInfo("SA", "BO", 68, "Bolivia", "Sucre", "es,quz", "591") },</v>
+        <v>{ new CountryInfo("SA", "BO","BOL", 68, "Bolivia", "Sucre", "es,quz", "591") },</v>
       </c>
       <c r="S27" t="s">
         <v>176</v>
@@ -16330,7 +16330,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>182</v>
       </c>
@@ -16351,7 +16351,7 @@
       </c>
       <c r="H28" t="str">
         <f t="shared" si="0"/>
-        <v>{ new CountryInfo("NA", "BQ", 535, "Bonaire", "", "nl", "599-7") },</v>
+        <v>{ new CountryInfo("NA", "BQ","BES", 535, "Bonaire", "", "nl", "599-7") },</v>
       </c>
       <c r="S28" t="s">
         <v>182</v>
@@ -16379,7 +16379,7 @@
         <v>599-7</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>103</v>
       </c>
@@ -16403,7 +16403,7 @@
       </c>
       <c r="H29" t="str">
         <f t="shared" si="0"/>
-        <v>{ new CountryInfo("EU", "BA", 70, "Bosnia and Herzegovina", "Sarajevo", "bs,hr,sr", "387") },</v>
+        <v>{ new CountryInfo("EU", "BA","BIH", 70, "Bosnia and Herzegovina", "Sarajevo", "bs,hr,sr", "387") },</v>
       </c>
       <c r="S29" t="s">
         <v>103</v>
@@ -16437,7 +16437,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>206</v>
       </c>
@@ -16461,7 +16461,7 @@
       </c>
       <c r="H30" t="str">
         <f t="shared" si="0"/>
-        <v>{ new CountryInfo("AF", "BW", 72, "Botswana", "Gaborone", "en,tn", "267") },</v>
+        <v>{ new CountryInfo("AF", "BW","BWA", 72, "Botswana", "Gaborone", "en,tn", "267") },</v>
       </c>
       <c r="S30" t="s">
         <v>206</v>
@@ -16495,7 +16495,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>202</v>
       </c>
@@ -16516,7 +16516,7 @@
       </c>
       <c r="H31" t="str">
         <f t="shared" si="0"/>
-        <v>{ new CountryInfo("AN", "BV", 74, "Bouvet Island", "", "no", "47") },</v>
+        <v>{ new CountryInfo("AN", "BV","BVT", 74, "Bouvet Island", "", "no", "47") },</v>
       </c>
       <c r="S31" t="s">
         <v>202</v>
@@ -16547,7 +16547,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>186</v>
       </c>
@@ -16571,7 +16571,7 @@
       </c>
       <c r="H32" t="str">
         <f t="shared" si="0"/>
-        <v>{ new CountryInfo("SA", "BR", 76, "Brazil", "Brasilia", "pt,es", "55") },</v>
+        <v>{ new CountryInfo("SA", "BR","BRA", 76, "Brazil", "Brasilia", "pt,es", "55") },</v>
       </c>
       <c r="S32" t="s">
         <v>186</v>
@@ -16605,7 +16605,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>633</v>
       </c>
@@ -16629,7 +16629,7 @@
       </c>
       <c r="H33" t="str">
         <f t="shared" si="0"/>
-        <v>{ new CountryInfo("AS", "IO", 86, "British Indian Ocean Territory", "Diego Garcia", "en", "246") },</v>
+        <v>{ new CountryInfo("AS", "IO","IOT", 86, "British Indian Ocean Territory", "Diego Garcia", "en", "246") },</v>
       </c>
       <c r="S33" t="s">
         <v>633</v>
@@ -16663,7 +16663,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>1408</v>
       </c>
@@ -16687,7 +16687,7 @@
       </c>
       <c r="H34" t="str">
         <f t="shared" si="0"/>
-        <v>{ new CountryInfo("NA", "VG", 92, "British Virgin Islands", "Road Town", "en", "1-284") },</v>
+        <v>{ new CountryInfo("NA", "VG","VGB", 92, "British Virgin Islands", "Road Town", "en", "1-284") },</v>
       </c>
       <c r="S34" t="s">
         <v>1408</v>
@@ -16721,7 +16721,7 @@
         <v>1-284</v>
       </c>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>155</v>
       </c>
@@ -16745,7 +16745,7 @@
       </c>
       <c r="H35" t="str">
         <f t="shared" si="0"/>
-        <v>{ new CountryInfo("AS", "BN", 96, "Brunei", "Bandar Seri Begawan", "ms", "673") },</v>
+        <v>{ new CountryInfo("AS", "BN","BRN", 96, "Brunei", "Bandar Seri Begawan", "ms", "673") },</v>
       </c>
       <c r="S35" t="s">
         <v>155</v>
@@ -16779,7 +16779,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>117</v>
       </c>
@@ -16803,7 +16803,7 @@
       </c>
       <c r="H36" t="str">
         <f t="shared" si="0"/>
-        <v>{ new CountryInfo("EU", "BG", 100, "Bulgaria", "Sofia", "bg", "359") },</v>
+        <v>{ new CountryInfo("EU", "BG","BGR", 100, "Bulgaria", "Sofia", "bg", "359") },</v>
       </c>
       <c r="S36" t="s">
         <v>117</v>
@@ -16837,7 +16837,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>128</v>
       </c>
@@ -16861,7 +16861,7 @@
       </c>
       <c r="H37" t="str">
         <f t="shared" si="0"/>
-        <v>{ new CountryInfo("AF", "BF", 854, "Burkina Faso", "Ouagadougou", "fr", "226") },</v>
+        <v>{ new CountryInfo("AF", "BF","BFA", 854, "Burkina Faso", "Ouagadougou", "fr", "226") },</v>
       </c>
       <c r="S37" t="s">
         <v>128</v>
@@ -16895,7 +16895,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>146</v>
       </c>
@@ -16919,7 +16919,7 @@
       </c>
       <c r="H38" t="str">
         <f t="shared" si="0"/>
-        <v>{ new CountryInfo("AF", "BI", 108, "Burundi", "Bujumbura", "rn,en,fr", "257") },</v>
+        <v>{ new CountryInfo("AF", "BI","BDI", 108, "Burundi", "Bujumbura", "rn,en,fr", "257") },</v>
       </c>
       <c r="S38" t="s">
         <v>146</v>
@@ -16953,7 +16953,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>698</v>
       </c>
@@ -16977,7 +16977,7 @@
       </c>
       <c r="H39" t="str">
         <f t="shared" si="0"/>
-        <v>{ new CountryInfo("AS", "KH", 116, "Cambodia", "Phnom Penh", "km", "855") },</v>
+        <v>{ new CountryInfo("AS", "KH","KHM", 116, "Cambodia", "Phnom Penh", "km", "855") },</v>
       </c>
       <c r="S39" t="s">
         <v>698</v>
@@ -17011,7 +17011,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>279</v>
       </c>
@@ -17035,7 +17035,7 @@
       </c>
       <c r="H40" t="str">
         <f t="shared" si="0"/>
-        <v>{ new CountryInfo("AF", "CM", 120, "Cameroon", "Yaounde", "agq,bas,dua,en,ewo,ff,fr,jgo,kkj,ksf,mgo,mua,nmg,nnh,yav", "237") },</v>
+        <v>{ new CountryInfo("AF", "CM","CMR", 120, "Cameroon", "Yaounde", "agq,bas,dua,en,ewo,ff,fr,jgo,kkj,ksf,mgo,mua,nmg,nnh,yav", "237") },</v>
       </c>
       <c r="S40" t="s">
         <v>279</v>
@@ -17069,7 +17069,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>223</v>
       </c>
@@ -17093,7 +17093,7 @@
       </c>
       <c r="H41" t="str">
         <f t="shared" si="0"/>
-        <v>{ new CountryInfo("NA", "CA", 124, "Canada", "Ottawa", "en,fr,iu,iu,moh", "1") },</v>
+        <v>{ new CountryInfo("NA", "CA","CAN", 124, "Canada", "Ottawa", "en,fr,iu,iu,moh", "1") },</v>
       </c>
       <c r="S41" t="s">
         <v>223</v>
@@ -17127,7 +17127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>316</v>
       </c>
@@ -17151,7 +17151,7 @@
       </c>
       <c r="H42" t="str">
         <f t="shared" si="0"/>
-        <v>{ new CountryInfo("AF", "CV", 132, "Cape Verde", "Praia", "kea,pt", "238") },</v>
+        <v>{ new CountryInfo("AF", "CV","CPV", 132, "Cape Verde", "Praia", "kea,pt", "238") },</v>
       </c>
       <c r="S42" t="s">
         <v>316</v>
@@ -17185,7 +17185,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>741</v>
       </c>
@@ -17209,7 +17209,7 @@
       </c>
       <c r="H43" t="str">
         <f t="shared" si="0"/>
-        <v>{ new CountryInfo("NA", "KY", 136, "Cayman Islands", "George Town", "en", "1-345") },</v>
+        <v>{ new CountryInfo("NA", "KY","CYM", 136, "Cayman Islands", "George Town", "en", "1-345") },</v>
       </c>
       <c r="S43" t="s">
         <v>741</v>
@@ -17243,7 +17243,7 @@
         <v>1-345</v>
       </c>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>242</v>
       </c>
@@ -17267,7 +17267,7 @@
       </c>
       <c r="H44" t="str">
         <f t="shared" si="0"/>
-        <v>{ new CountryInfo("AF", "CF", 140, "Central African Republic", "Bangui", "fr,ln,sg", "236") },</v>
+        <v>{ new CountryInfo("AF", "CF","CAF", 140, "Central African Republic", "Bangui", "fr,ln,sg", "236") },</v>
       </c>
       <c r="S44" t="s">
         <v>242</v>
@@ -17301,7 +17301,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>1268</v>
       </c>
@@ -17325,7 +17325,7 @@
       </c>
       <c r="H45" t="str">
         <f t="shared" si="0"/>
-        <v>{ new CountryInfo("AF", "TD", 148, "Chad", "N'Djamena", "ar,fr", "235") },</v>
+        <v>{ new CountryInfo("AF", "TD","TCD", 148, "Chad", "N'Djamena", "ar,fr", "235") },</v>
       </c>
       <c r="S45" t="s">
         <v>1268</v>
@@ -17359,7 +17359,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>273</v>
       </c>
@@ -17383,7 +17383,7 @@
       </c>
       <c r="H46" t="str">
         <f t="shared" si="0"/>
-        <v>{ new CountryInfo("SA", "CL", 152, "Chile", "Santiago", "arn,es", "56") },</v>
+        <v>{ new CountryInfo("SA", "CL","CHL", 152, "Chile", "Santiago", "arn,es", "56") },</v>
       </c>
       <c r="S46" t="s">
         <v>273</v>
@@ -17417,7 +17417,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>285</v>
       </c>
@@ -17441,7 +17441,7 @@
       </c>
       <c r="H47" t="str">
         <f t="shared" si="0"/>
-        <v>{ new CountryInfo("AS", "CN", 156, "China", "Beijing", "zh,mn,bo,ii,ug", "86") },</v>
+        <v>{ new CountryInfo("AS", "CN","CHN", 156, "China", "Beijing", "zh,mn,bo,ii,ug", "86") },</v>
       </c>
       <c r="S47" t="s">
         <v>285</v>
@@ -17475,7 +17475,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>325</v>
       </c>
@@ -17499,7 +17499,7 @@
       </c>
       <c r="H48" t="str">
         <f t="shared" si="0"/>
-        <v>{ new CountryInfo("OC", "CX", 162, "Christmas Island", "Flying Fish Cove", "en", "61") },</v>
+        <v>{ new CountryInfo("OC", "CX","CXR", 162, "Christmas Island", "Flying Fish Cove", "en", "61") },</v>
       </c>
       <c r="S48" t="s">
         <v>325</v>
@@ -17533,7 +17533,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>229</v>
       </c>
@@ -17557,7 +17557,7 @@
       </c>
       <c r="H49" t="str">
         <f t="shared" si="0"/>
-        <v>{ new CountryInfo("AS", "CC", 166, "Cocos [Keeling] Islands", "West Island", "en", "61") },</v>
+        <v>{ new CountryInfo("AS", "CC","CCK", 166, "Cocos [Keeling] Islands", "West Island", "en", "61") },</v>
       </c>
       <c r="S49" t="s">
         <v>229</v>
@@ -17591,7 +17591,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>291</v>
       </c>
@@ -17615,7 +17615,7 @@
       </c>
       <c r="H50" t="str">
         <f t="shared" si="0"/>
-        <v>{ new CountryInfo("SA", "CO", 170, "Colombia", "Bogota", "es", "57") },</v>
+        <v>{ new CountryInfo("SA", "CO","COL", 170, "Colombia", "Bogota", "es", "57") },</v>
       </c>
       <c r="S50" t="s">
         <v>291</v>
@@ -17649,7 +17649,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>711</v>
       </c>
@@ -17673,7 +17673,7 @@
       </c>
       <c r="H51" t="str">
         <f t="shared" si="0"/>
-        <v>{ new CountryInfo("AF", "KM", 174, "Comoros", "Moroni", "ar,fr", "269") },</v>
+        <v>{ new CountryInfo("AF", "KM","COM", 174, "Comoros", "Moroni", "ar,fr", "269") },</v>
       </c>
       <c r="S51" t="s">
         <v>711</v>
@@ -17707,7 +17707,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>231</v>
       </c>
@@ -17731,7 +17731,7 @@
       </c>
       <c r="H52" t="str">
         <f t="shared" si="0"/>
-        <v>{ new CountryInfo("OC", "CK", 184, "Cook Islands", "Avarua", "en", "682") },</v>
+        <v>{ new CountryInfo("OC", "CK","COK", 184, "Cook Islands", "Avarua", "en", "682") },</v>
       </c>
       <c r="S52" t="s">
         <v>231</v>
@@ -17765,7 +17765,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>297</v>
       </c>
@@ -17789,7 +17789,7 @@
       </c>
       <c r="H53" t="str">
         <f t="shared" si="0"/>
-        <v>{ new CountryInfo("NA", "CR", 188, "Costa Rica", "San Jose", "es", "506") },</v>
+        <v>{ new CountryInfo("NA", "CR","CRI", 188, "Costa Rica", "San Jose", "es", "506") },</v>
       </c>
       <c r="S53" t="s">
         <v>297</v>
@@ -17823,7 +17823,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>583</v>
       </c>
@@ -17847,7 +17847,7 @@
       </c>
       <c r="H54" t="str">
         <f t="shared" si="0"/>
-        <v>{ new CountryInfo("EU", "HR", 191, "Croatia", "Zagreb", "hr", "385") },</v>
+        <v>{ new CountryInfo("EU", "HR","HRV", 191, "Croatia", "Zagreb", "hr", "385") },</v>
       </c>
       <c r="S54" t="s">
         <v>583</v>
@@ -17881,7 +17881,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>310</v>
       </c>
@@ -17905,7 +17905,7 @@
       </c>
       <c r="H55" t="str">
         <f t="shared" si="0"/>
-        <v>{ new CountryInfo("NA", "CU", 192, "Cuba", "Havana", "es", "53") },</v>
+        <v>{ new CountryInfo("NA", "CU","CUB", 192, "Cuba", "Havana", "es", "53") },</v>
       </c>
       <c r="S55" t="s">
         <v>310</v>
@@ -17939,7 +17939,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>269</v>
       </c>
@@ -17963,7 +17963,7 @@
       </c>
       <c r="H56" t="str">
         <f t="shared" si="0"/>
-        <v>{ new CountryInfo("NA", "CW", 531, "Curacao", "Willemstad", "nl", "599") },</v>
+        <v>{ new CountryInfo("NA", "CW","CUW", 531, "Curacao", "Willemstad", "nl", "599") },</v>
       </c>
       <c r="S56" t="s">
         <v>269</v>
@@ -17997,7 +17997,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>331</v>
       </c>
@@ -18021,7 +18021,7 @@
       </c>
       <c r="H57" t="str">
         <f t="shared" si="0"/>
-        <v>{ new CountryInfo("EU", "CY", 196, "Cyprus", "Nicosia", "el,en,tr", "357") },</v>
+        <v>{ new CountryInfo("EU", "CY","CYP", 196, "Cyprus", "Nicosia", "el,en,tr", "357") },</v>
       </c>
       <c r="S57" t="s">
         <v>331</v>
@@ -18055,7 +18055,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>337</v>
       </c>
@@ -18079,7 +18079,7 @@
       </c>
       <c r="H58" t="str">
         <f t="shared" si="0"/>
-        <v>{ new CountryInfo("EU", "CZ", 203, "Czechia", "Prague", "cs", "420") },</v>
+        <v>{ new CountryInfo("EU", "CZ","CZE", 203, "Czechia", "Prague", "cs", "420") },</v>
       </c>
       <c r="S58" t="s">
         <v>337</v>
@@ -18113,7 +18113,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>235</v>
       </c>
@@ -18137,7 +18137,7 @@
       </c>
       <c r="H59" t="str">
         <f t="shared" si="0"/>
-        <v>{ new CountryInfo("AF", "CD", 180, "Democratic Republic of the Congo", "Kinshasa", "fr,ln,lu,sw", "243") },</v>
+        <v>{ new CountryInfo("AF", "CD","COD", 180, "Democratic Republic of the Congo", "Kinshasa", "fr,ln,lu,sw", "243") },</v>
       </c>
       <c r="S59" t="s">
         <v>235</v>
@@ -18171,7 +18171,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>355</v>
       </c>
@@ -18195,7 +18195,7 @@
       </c>
       <c r="H60" t="str">
         <f t="shared" si="0"/>
-        <v>{ new CountryInfo("EU", "DK", 208, "Denmark", "Copenhagen", "da,en,fo", "45") },</v>
+        <v>{ new CountryInfo("EU", "DK","DNK", 208, "Denmark", "Copenhagen", "da,en,fo", "45") },</v>
       </c>
       <c r="S60" t="s">
         <v>355</v>
@@ -18229,7 +18229,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>351</v>
       </c>
@@ -18253,7 +18253,7 @@
       </c>
       <c r="H61" t="str">
         <f t="shared" si="0"/>
-        <v>{ new CountryInfo("AF", "DJ", 262, "Djibouti", "Djibouti", "aa,ar,fr,so", "253") },</v>
+        <v>{ new CountryInfo("AF", "DJ","DJI", 262, "Djibouti", "Djibouti", "aa,ar,fr,so", "253") },</v>
       </c>
       <c r="S61" t="s">
         <v>351</v>
@@ -18287,7 +18287,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>362</v>
       </c>
@@ -18311,7 +18311,7 @@
       </c>
       <c r="H62" t="str">
         <f t="shared" si="0"/>
-        <v>{ new CountryInfo("NA", "DM", 212, "Dominica", "Roseau", "en", "1-767") },</v>
+        <v>{ new CountryInfo("NA", "DM","DMA", 212, "Dominica", "Roseau", "en", "1-767") },</v>
       </c>
       <c r="S62" t="s">
         <v>362</v>
@@ -18345,7 +18345,7 @@
         <v>1-767</v>
       </c>
     </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>364</v>
       </c>
@@ -18369,7 +18369,7 @@
       </c>
       <c r="H63" t="str">
         <f t="shared" si="0"/>
-        <v>{ new CountryInfo("NA", "DO", 214, "Dominican Republic", "Santo Domingo", "es", "1-809, 1-829, 1-849") },</v>
+        <v>{ new CountryInfo("NA", "DO","DOM", 214, "Dominican Republic", "Santo Domingo", "es", "1-809, 1-829, 1-849") },</v>
       </c>
       <c r="S63" t="s">
         <v>364</v>
@@ -18403,7 +18403,7 @@
         <v>1-809, 1-829, 1-849</v>
       </c>
     </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>1301</v>
       </c>
@@ -18427,7 +18427,7 @@
       </c>
       <c r="H64" t="str">
         <f t="shared" si="0"/>
-        <v>{ new CountryInfo("OC", "TL", 626, "East Timor", "Dili", "pt", "670") },</v>
+        <v>{ new CountryInfo("OC", "TL","TLS", 626, "East Timor", "Dili", "pt", "670") },</v>
       </c>
       <c r="S64" t="s">
         <v>1301</v>
@@ -18461,7 +18461,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="65" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>380</v>
       </c>
@@ -18485,7 +18485,7 @@
       </c>
       <c r="H65" t="str">
         <f t="shared" si="0"/>
-        <v>{ new CountryInfo("SA", "EC", 218, "Ecuador", "Quito", "es,quz", "593") },</v>
+        <v>{ new CountryInfo("SA", "EC","ECU", 218, "Ecuador", "Quito", "es,quz", "593") },</v>
       </c>
       <c r="S65" t="s">
         <v>380</v>
@@ -18519,7 +18519,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="66" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>393</v>
       </c>
@@ -18542,8 +18542,8 @@
         <v>1492</v>
       </c>
       <c r="H66" t="str">
-        <f t="shared" ref="H66:H129" si="1">_xlfn.CONCAT("{ new CountryInfo(""",F66,""", """,A66,""", ",C66,", """,D66,""", """,E66,""", """,G66,""", """,AB66,""") },")</f>
-        <v>{ new CountryInfo("AF", "EG", 818, "Egypt", "Cairo", "ar", "20") },</v>
+        <f t="shared" ref="H66:H129" si="1">_xlfn.CONCAT("{ new CountryInfo(""",F66,""", """,A66,""",""",B66,""", ",C66,", """,D66,""", """,E66,""", """,G66,""", """,AB66,""") },")</f>
+        <v>{ new CountryInfo("AF", "EG","EGY", 818, "Egypt", "Cairo", "ar", "20") },</v>
       </c>
       <c r="S66" t="s">
         <v>393</v>
@@ -18577,7 +18577,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>1191</v>
       </c>
@@ -18601,7 +18601,7 @@
       </c>
       <c r="H67" t="str">
         <f t="shared" si="1"/>
-        <v>{ new CountryInfo("NA", "SV", 222, "El Salvador", "San Salvador", "es", "503") },</v>
+        <v>{ new CountryInfo("NA", "SV","SLV", 222, "El Salvador", "San Salvador", "es", "503") },</v>
       </c>
       <c r="S67" t="s">
         <v>1191</v>
@@ -18635,7 +18635,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="68" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>525</v>
       </c>
@@ -18659,7 +18659,7 @@
       </c>
       <c r="H68" t="str">
         <f t="shared" si="1"/>
-        <v>{ new CountryInfo("AF", "GQ", 226, "Equatorial Guinea", "Malabo", "es,fr,pt", "240") },</v>
+        <v>{ new CountryInfo("AF", "GQ","GNQ", 226, "Equatorial Guinea", "Malabo", "es,fr,pt", "240") },</v>
       </c>
       <c r="S68" t="s">
         <v>525</v>
@@ -18693,7 +18693,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="69" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>405</v>
       </c>
@@ -18717,7 +18717,7 @@
       </c>
       <c r="H69" t="str">
         <f t="shared" si="1"/>
-        <v>{ new CountryInfo("AF", "ER", 232, "Eritrea", "Asmara", "aa,ar,byn,en,ssy,ti,tig", "291") },</v>
+        <v>{ new CountryInfo("AF", "ER","ERI", 232, "Eritrea", "Asmara", "aa,ar,byn,en,ssy,ti,tig", "291") },</v>
       </c>
       <c r="S69" t="s">
         <v>405</v>
@@ -18751,7 +18751,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="70" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>386</v>
       </c>
@@ -18775,7 +18775,7 @@
       </c>
       <c r="H70" t="str">
         <f t="shared" si="1"/>
-        <v>{ new CountryInfo("EU", "EE", 233, "Estonia", "Tallinn", "et", "372") },</v>
+        <v>{ new CountryInfo("EU", "EE","EST", 233, "Estonia", "Tallinn", "et", "372") },</v>
       </c>
       <c r="S70" t="s">
         <v>386</v>
@@ -18809,7 +18809,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="71" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>418</v>
       </c>
@@ -18833,7 +18833,7 @@
       </c>
       <c r="H71" t="str">
         <f t="shared" si="1"/>
-        <v>{ new CountryInfo("AF", "ET", 231, "Ethiopia", "Addis Ababa", "aa,am,om,so,ti,wal", "251") },</v>
+        <v>{ new CountryInfo("AF", "ET","ETH", 231, "Ethiopia", "Addis Ababa", "aa,am,om,so,ti,wal", "251") },</v>
       </c>
       <c r="S71" t="s">
         <v>418</v>
@@ -18867,7 +18867,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="72" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>435</v>
       </c>
@@ -18891,7 +18891,7 @@
       </c>
       <c r="H72" t="str">
         <f t="shared" si="1"/>
-        <v>{ new CountryInfo("SA", "FK", 238, "Falkland Islands", "Stanley", "en", "500") },</v>
+        <v>{ new CountryInfo("SA", "FK","FLK", 238, "Falkland Islands", "Stanley", "en", "500") },</v>
       </c>
       <c r="S72" t="s">
         <v>435</v>
@@ -18925,7 +18925,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="73" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>445</v>
       </c>
@@ -18949,7 +18949,7 @@
       </c>
       <c r="H73" t="str">
         <f t="shared" si="1"/>
-        <v>{ new CountryInfo("EU", "FO", 234, "Faroe Islands", "Torshavn", "fo", "298") },</v>
+        <v>{ new CountryInfo("EU", "FO","FRO", 234, "Faroe Islands", "Torshavn", "fo", "298") },</v>
       </c>
       <c r="S73" t="s">
         <v>445</v>
@@ -18983,7 +18983,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="74" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>430</v>
       </c>
@@ -19007,7 +19007,7 @@
       </c>
       <c r="H74" t="str">
         <f t="shared" si="1"/>
-        <v>{ new CountryInfo("OC", "FJ", 242, "Fiji", "Suva", "en", "679") },</v>
+        <v>{ new CountryInfo("OC", "FJ","FJI", 242, "Fiji", "Suva", "en", "679") },</v>
       </c>
       <c r="S74" t="s">
         <v>430</v>
@@ -19041,7 +19041,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="75" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>424</v>
       </c>
@@ -19065,7 +19065,7 @@
       </c>
       <c r="H75" t="str">
         <f t="shared" si="1"/>
-        <v>{ new CountryInfo("EU", "FI", 246, "Finland", "Helsinki", "en,fi,se,smn,sms,sv", "358") },</v>
+        <v>{ new CountryInfo("EU", "FI","FIN", 246, "Finland", "Helsinki", "en,fi,se,smn,sms,sv", "358") },</v>
       </c>
       <c r="S75" t="s">
         <v>424</v>
@@ -19099,7 +19099,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="76" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>450</v>
       </c>
@@ -19123,7 +19123,7 @@
       </c>
       <c r="H76" t="str">
         <f t="shared" si="1"/>
-        <v>{ new CountryInfo("EU", "FR", 250, "France", "Paris", "fr,br,ca,co,gsw,ia,oc", "33") },</v>
+        <v>{ new CountryInfo("EU", "FR","FRA", 250, "France", "Paris", "fr,br,ca,co,gsw,ia,oc", "33") },</v>
       </c>
       <c r="S76" t="s">
         <v>450</v>
@@ -19157,7 +19157,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="77" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>482</v>
       </c>
@@ -19181,7 +19181,7 @@
       </c>
       <c r="H77" t="str">
         <f t="shared" si="1"/>
-        <v>{ new CountryInfo("SA", "GF", 254, "French Guiana", "Cayenne", "fr", "594") },</v>
+        <v>{ new CountryInfo("SA", "GF","GUF", 254, "French Guiana", "Cayenne", "fr", "594") },</v>
       </c>
       <c r="S77" t="s">
         <v>482</v>
@@ -19215,7 +19215,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="78" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>1035</v>
       </c>
@@ -19239,7 +19239,7 @@
       </c>
       <c r="H78" t="str">
         <f t="shared" si="1"/>
-        <v>{ new CountryInfo("OC", "PF", 258, "French Polynesia", "Papeete", "fr", "689") },</v>
+        <v>{ new CountryInfo("OC", "PF","PYF", 258, "French Polynesia", "Papeete", "fr", "689") },</v>
       </c>
       <c r="S78" t="s">
         <v>1035</v>
@@ -19273,7 +19273,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="79" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>1274</v>
       </c>
@@ -19297,7 +19297,7 @@
       </c>
       <c r="H79" t="str">
         <f t="shared" si="1"/>
-        <v>{ new CountryInfo("AN", "TF", 260, "French Southern Territories", "Port-aux-Francais", "fr", "33") },</v>
+        <v>{ new CountryInfo("AN", "TF","ATF", 260, "French Southern Territories", "Port-aux-Francais", "fr", "33") },</v>
       </c>
       <c r="S79" t="s">
         <v>1274</v>
@@ -19331,7 +19331,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="80" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>456</v>
       </c>
@@ -19355,7 +19355,7 @@
       </c>
       <c r="H80" t="str">
         <f t="shared" si="1"/>
-        <v>{ new CountryInfo("AF", "GA", 266, "Gabon", "Libreville", "fr", "241") },</v>
+        <v>{ new CountryInfo("AF", "GA","GAB", 266, "Gabon", "Libreville", "fr", "241") },</v>
       </c>
       <c r="S80" t="s">
         <v>456</v>
@@ -19389,7 +19389,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="81" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>346</v>
       </c>
@@ -19413,7 +19413,7 @@
       </c>
       <c r="H81" t="str">
         <f t="shared" si="1"/>
-        <v>{ new CountryInfo("AF", "GM", 270, "Gambia", "Banjul", "en", "220") },</v>
+        <v>{ new CountryInfo("AF", "GM","GMB", 270, "Gambia", "Banjul", "en", "220") },</v>
       </c>
       <c r="S81" t="s">
         <v>346</v>
@@ -19447,7 +19447,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="82" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>475</v>
       </c>
@@ -19471,7 +19471,7 @@
       </c>
       <c r="H82" t="str">
         <f t="shared" si="1"/>
-        <v>{ new CountryInfo("AS", "GE", 268, "Georgia", "Tbilisi", "ka,os", "995") },</v>
+        <v>{ new CountryInfo("AS", "GE","GEO", 268, "Georgia", "Tbilisi", "ka,os", "995") },</v>
       </c>
       <c r="S82" t="s">
         <v>475</v>
@@ -19505,7 +19505,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="83" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>344</v>
       </c>
@@ -19529,7 +19529,7 @@
       </c>
       <c r="H83" t="str">
         <f t="shared" si="1"/>
-        <v>{ new CountryInfo("EU", "DE", 276, "Germany", "Berlin", "de,dsb,en,hsb,ksh,nds", "49") },</v>
+        <v>{ new CountryInfo("EU", "DE","DEU", 276, "Germany", "Berlin", "de,dsb,en,hsb,ksh,nds", "49") },</v>
       </c>
       <c r="S83" t="s">
         <v>344</v>
@@ -19563,7 +19563,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="84" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>493</v>
       </c>
@@ -19587,7 +19587,7 @@
       </c>
       <c r="H84" t="str">
         <f t="shared" si="1"/>
-        <v>{ new CountryInfo("AF", "GH", 288, "Ghana", "Accra", "ak,ee,en,ha", "233") },</v>
+        <v>{ new CountryInfo("AF", "GH","GHA", 288, "Ghana", "Accra", "ak,ee,en,ha", "233") },</v>
       </c>
       <c r="S84" t="s">
         <v>493</v>
@@ -19621,7 +19621,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="85" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>499</v>
       </c>
@@ -19645,7 +19645,7 @@
       </c>
       <c r="H85" t="str">
         <f t="shared" si="1"/>
-        <v>{ new CountryInfo("EU", "GI", 292, "Gibraltar", "Gibraltar", "en", "350") },</v>
+        <v>{ new CountryInfo("EU", "GI","GIB", 292, "Gibraltar", "Gibraltar", "en", "350") },</v>
       </c>
       <c r="S85" t="s">
         <v>499</v>
@@ -19679,7 +19679,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="86" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>532</v>
       </c>
@@ -19703,7 +19703,7 @@
       </c>
       <c r="H86" t="str">
         <f t="shared" si="1"/>
-        <v>{ new CountryInfo("EU", "GR", 300, "Greece", "Athens", "el", "30") },</v>
+        <v>{ new CountryInfo("EU", "GR","GRC", 300, "Greece", "Athens", "el", "30") },</v>
       </c>
       <c r="S86" t="s">
         <v>532</v>
@@ -19737,7 +19737,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="87" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>503</v>
       </c>
@@ -19761,7 +19761,7 @@
       </c>
       <c r="H87" t="str">
         <f t="shared" si="1"/>
-        <v>{ new CountryInfo("NA", "GL", 304, "Greenland", "Nuuk", "da,kl", "299") },</v>
+        <v>{ new CountryInfo("NA", "GL","GRL", 304, "Greenland", "Nuuk", "da,kl", "299") },</v>
       </c>
       <c r="S87" t="s">
         <v>503</v>
@@ -19795,7 +19795,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="88" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>469</v>
       </c>
@@ -19819,7 +19819,7 @@
       </c>
       <c r="H88" t="str">
         <f t="shared" si="1"/>
-        <v>{ new CountryInfo("NA", "GD", 308, "Grenada", "St. George's", "en", "1-473") },</v>
+        <v>{ new CountryInfo("NA", "GD","GRD", 308, "Grenada", "St. George's", "en", "1-473") },</v>
       </c>
       <c r="S88" t="s">
         <v>469</v>
@@ -19853,7 +19853,7 @@
         <v>1-473</v>
       </c>
     </row>
-    <row r="89" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>520</v>
       </c>
@@ -19877,7 +19877,7 @@
       </c>
       <c r="H89" t="str">
         <f t="shared" si="1"/>
-        <v>{ new CountryInfo("NA", "GP", 312, "Guadeloupe", "Basse-Terre", "fr", "590") },</v>
+        <v>{ new CountryInfo("NA", "GP","GLP", 312, "Guadeloupe", "Basse-Terre", "fr", "590") },</v>
       </c>
       <c r="S89" t="s">
         <v>520</v>
@@ -19911,7 +19911,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="90" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>550</v>
       </c>
@@ -19935,7 +19935,7 @@
       </c>
       <c r="H90" t="str">
         <f t="shared" si="1"/>
-        <v>{ new CountryInfo("OC", "GU", 316, "Guam", "Hagatna", "en", "1-671") },</v>
+        <v>{ new CountryInfo("OC", "GU","GUM", 316, "Guam", "Hagatna", "en", "1-671") },</v>
       </c>
       <c r="S90" t="s">
         <v>550</v>
@@ -19969,7 +19969,7 @@
         <v>1-671</v>
       </c>
     </row>
-    <row r="91" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>544</v>
       </c>
@@ -19993,7 +19993,7 @@
       </c>
       <c r="H91" t="str">
         <f t="shared" si="1"/>
-        <v>{ new CountryInfo("NA", "GT", 320, "Guatemala", "Guatemala City", "es,quc", "502") },</v>
+        <v>{ new CountryInfo("NA", "GT","GTM", 320, "Guatemala", "Guatemala City", "es,quc", "502") },</v>
       </c>
       <c r="S91" t="s">
         <v>544</v>
@@ -20027,7 +20027,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="92" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>477</v>
       </c>
@@ -20051,7 +20051,7 @@
       </c>
       <c r="H92" t="str">
         <f t="shared" si="1"/>
-        <v>{ new CountryInfo("EU", "GG", 831, "Guernsey", "St Peter Port", "en", "44-1481") },</v>
+        <v>{ new CountryInfo("EU", "GG","GGY", 831, "Guernsey", "St Peter Port", "en", "44-1481") },</v>
       </c>
       <c r="S92" t="s">
         <v>477</v>
@@ -20085,7 +20085,7 @@
         <v>44-1481</v>
       </c>
     </row>
-    <row r="93" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>513</v>
       </c>
@@ -20109,7 +20109,7 @@
       </c>
       <c r="H93" t="str">
         <f t="shared" si="1"/>
-        <v>{ new CountryInfo("AF", "GN", 324, "Guinea", "Conakry", "fr,ff,nqo", "224") },</v>
+        <v>{ new CountryInfo("AF", "GN","GIN", 324, "Guinea", "Conakry", "fr,ff,nqo", "224") },</v>
       </c>
       <c r="S93" t="s">
         <v>513</v>
@@ -20143,7 +20143,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="94" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>555</v>
       </c>
@@ -20167,7 +20167,7 @@
       </c>
       <c r="H94" t="str">
         <f t="shared" si="1"/>
-        <v>{ new CountryInfo("AF", "GW", 624, "Guinea-Bissau", "Bissau", "pt", "245") },</v>
+        <v>{ new CountryInfo("AF", "GW","GNB", 624, "Guinea-Bissau", "Bissau", "pt", "245") },</v>
       </c>
       <c r="S94" t="s">
         <v>555</v>
@@ -20201,7 +20201,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="95" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>562</v>
       </c>
@@ -20225,7 +20225,7 @@
       </c>
       <c r="H95" t="str">
         <f t="shared" si="1"/>
-        <v>{ new CountryInfo("SA", "GY", 328, "Guyana", "Georgetown", "en", "592") },</v>
+        <v>{ new CountryInfo("SA", "GY","GUY", 328, "Guyana", "Georgetown", "en", "592") },</v>
       </c>
       <c r="S95" t="s">
         <v>562</v>
@@ -20259,7 +20259,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="96" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>589</v>
       </c>
@@ -20283,7 +20283,7 @@
       </c>
       <c r="H96" t="str">
         <f t="shared" si="1"/>
-        <v>{ new CountryInfo("NA", "HT", 332, "Haiti", "Port-au-Prince", "fr,zh", "509") },</v>
+        <v>{ new CountryInfo("NA", "HT","HTI", 332, "Haiti", "Port-au-Prince", "fr,zh", "509") },</v>
       </c>
       <c r="S96" t="s">
         <v>589</v>
@@ -20317,7 +20317,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="97" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>572</v>
       </c>
@@ -20338,7 +20338,7 @@
       </c>
       <c r="H97" t="str">
         <f t="shared" si="1"/>
-        <v>{ new CountryInfo("AN", "HM", 334, "Heard Island and McDonald Islands", "", "en", "61") },</v>
+        <v>{ new CountryInfo("AN", "HM","HMD", 334, "Heard Island and McDonald Islands", "", "en", "61") },</v>
       </c>
       <c r="S97" t="s">
         <v>572</v>
@@ -20369,7 +20369,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="98" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>576</v>
       </c>
@@ -20393,7 +20393,7 @@
       </c>
       <c r="H98" t="str">
         <f t="shared" si="1"/>
-        <v>{ new CountryInfo("NA", "HN", 340, "Honduras", "Tegucigalpa", "es", "504") },</v>
+        <v>{ new CountryInfo("NA", "HN","HND", 340, "Honduras", "Tegucigalpa", "es", "504") },</v>
       </c>
       <c r="S98" t="s">
         <v>576</v>
@@ -20427,7 +20427,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="99" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>567</v>
       </c>
@@ -20451,7 +20451,7 @@
       </c>
       <c r="H99" t="str">
         <f t="shared" si="1"/>
-        <v>{ new CountryInfo("AS", "HK", 344, "Hong Kong", "Hong Kong", "en,zh,zh", "852") },</v>
+        <v>{ new CountryInfo("AS", "HK","HKG", 344, "Hong Kong", "Hong Kong", "en,zh,zh", "852") },</v>
       </c>
       <c r="S99" t="s">
         <v>567</v>
@@ -20485,7 +20485,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="100" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>596</v>
       </c>
@@ -20509,7 +20509,7 @@
       </c>
       <c r="H100" t="str">
         <f t="shared" si="1"/>
-        <v>{ new CountryInfo("EU", "HU", 348, "Hungary", "Budapest", "hu", "36") },</v>
+        <v>{ new CountryInfo("EU", "HU","HUN", 348, "Hungary", "Budapest", "hu", "36") },</v>
       </c>
       <c r="S100" t="s">
         <v>596</v>
@@ -20543,7 +20543,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="101" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>617</v>
       </c>
@@ -20567,7 +20567,7 @@
       </c>
       <c r="H101" t="str">
         <f t="shared" si="1"/>
-        <v>{ new CountryInfo("EU", "IS", 352, "Iceland", "Reykjavik", "is", "354") },</v>
+        <v>{ new CountryInfo("EU", "IS","ISL", 352, "Iceland", "Reykjavik", "is", "354") },</v>
       </c>
       <c r="S101" t="s">
         <v>617</v>
@@ -20601,7 +20601,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="102" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>627</v>
       </c>
@@ -20625,7 +20625,7 @@
       </c>
       <c r="H102" t="str">
         <f t="shared" si="1"/>
-        <v>{ new CountryInfo("AS", "IN", 356, "India", "New Delhi", "as,bn,bo,brx,en,gu,hi,kn,kok,ks,ks,ml,mni,mr,ne,or,pa,sa,sd,ta,te,ur", "91") },</v>
+        <v>{ new CountryInfo("AS", "IN","IND", 356, "India", "New Delhi", "as,bn,bo,brx,en,gu,hi,kn,kok,ks,ks,ml,mni,mr,ne,or,pa,sa,sd,ta,te,ur", "91") },</v>
       </c>
       <c r="S102" t="s">
         <v>627</v>
@@ -20659,7 +20659,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="103" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>602</v>
       </c>
@@ -20683,7 +20683,7 @@
       </c>
       <c r="H103" t="str">
         <f t="shared" si="1"/>
-        <v>{ new CountryInfo("AS", "ID", 360, "Indonesia", "Jakarta", "en,id,jv,jv", "62") },</v>
+        <v>{ new CountryInfo("AS", "ID","IDN", 360, "Indonesia", "Jakarta", "en,id,jv,jv", "62") },</v>
       </c>
       <c r="S103" t="s">
         <v>602</v>
@@ -20717,7 +20717,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="104" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>645</v>
       </c>
@@ -20741,7 +20741,7 @@
       </c>
       <c r="H104" t="str">
         <f t="shared" si="1"/>
-        <v>{ new CountryInfo("AS", "IR", 364, "Iran", "Tehran", "fa,ku,lrc,mzn", "98") },</v>
+        <v>{ new CountryInfo("AS", "IR","IRN", 364, "Iran", "Tehran", "fa,ku,lrc,mzn", "98") },</v>
       </c>
       <c r="S104" t="s">
         <v>645</v>
@@ -20775,7 +20775,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="105" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>638</v>
       </c>
@@ -20799,7 +20799,7 @@
       </c>
       <c r="H105" t="str">
         <f t="shared" si="1"/>
-        <v>{ new CountryInfo("AS", "IQ", 368, "Iraq", "Baghdad", "ar,ku,lrc", "964") },</v>
+        <v>{ new CountryInfo("AS", "IQ","IRQ", 368, "Iraq", "Baghdad", "ar,ku,lrc", "964") },</v>
       </c>
       <c r="S105" t="s">
         <v>638</v>
@@ -20833,7 +20833,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="106" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>608</v>
       </c>
@@ -20857,7 +20857,7 @@
       </c>
       <c r="H106" t="str">
         <f t="shared" si="1"/>
-        <v>{ new CountryInfo("EU", "IE", 372, "Ireland", "Dublin", "en,ga", "353") },</v>
+        <v>{ new CountryInfo("EU", "IE","IRL", 372, "Ireland", "Dublin", "en,ga", "353") },</v>
       </c>
       <c r="S106" t="s">
         <v>608</v>
@@ -20891,7 +20891,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="107" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>622</v>
       </c>
@@ -20915,7 +20915,7 @@
       </c>
       <c r="H107" t="str">
         <f t="shared" si="1"/>
-        <v>{ new CountryInfo("EU", "IM", 833, "Isle of Man", "Douglas", "en,gv", "44-1624") },</v>
+        <v>{ new CountryInfo("EU", "IM","IMN", 833, "Isle of Man", "Douglas", "en,gv", "44-1624") },</v>
       </c>
       <c r="S107" t="s">
         <v>622</v>
@@ -20949,7 +20949,7 @@
         <v>44-1624</v>
       </c>
     </row>
-    <row r="108" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>615</v>
       </c>
@@ -20973,7 +20973,7 @@
       </c>
       <c r="H108" t="str">
         <f t="shared" si="1"/>
-        <v>{ new CountryInfo("AS", "IL", 376, "Israel", "Jerusalem", "he,en,ar,en", "972") },</v>
+        <v>{ new CountryInfo("AS", "IL","ISR", 376, "Israel", "Jerusalem", "he,en,ar,en", "972") },</v>
       </c>
       <c r="S108" t="s">
         <v>615</v>
@@ -21007,7 +21007,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="109" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>656</v>
       </c>
@@ -21031,7 +21031,7 @@
       </c>
       <c r="H109" t="str">
         <f t="shared" si="1"/>
-        <v>{ new CountryInfo("EU", "IT", 380, "Italy", "Rome", "it,ca,de,fur", "39") },</v>
+        <v>{ new CountryInfo("EU", "IT","ITA", 380, "Italy", "Rome", "it,ca,de,fur", "39") },</v>
       </c>
       <c r="S109" t="s">
         <v>656</v>
@@ -21065,7 +21065,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="110" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>261</v>
       </c>
@@ -21089,7 +21089,7 @@
       </c>
       <c r="H110" t="str">
         <f t="shared" si="1"/>
-        <v>{ new CountryInfo("AF", "CI", 384, "Ivory Coast", "Yamoussoukro", "fr", "225") },</v>
+        <v>{ new CountryInfo("AF", "CI","CIV", 384, "Ivory Coast", "Yamoussoukro", "fr", "225") },</v>
       </c>
       <c r="S110" t="s">
         <v>261</v>
@@ -21123,7 +21123,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="111" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>667</v>
       </c>
@@ -21147,7 +21147,7 @@
       </c>
       <c r="H111" t="str">
         <f t="shared" si="1"/>
-        <v>{ new CountryInfo("NA", "JM", 388, "Jamaica", "Kingston", "en", "1-876") },</v>
+        <v>{ new CountryInfo("NA", "JM","JAM", 388, "Jamaica", "Kingston", "en", "1-876") },</v>
       </c>
       <c r="S111" t="s">
         <v>667</v>
@@ -21181,7 +21181,7 @@
         <v>1-876</v>
       </c>
     </row>
-    <row r="112" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>679</v>
       </c>
@@ -21205,7 +21205,7 @@
       </c>
       <c r="H112" t="str">
         <f t="shared" si="1"/>
-        <v>{ new CountryInfo("AS", "JP", 392, "Japan", "Tokyo", "ja", "81") },</v>
+        <v>{ new CountryInfo("AS", "JP","JPN", 392, "Japan", "Tokyo", "ja", "81") },</v>
       </c>
       <c r="S112" t="s">
         <v>679</v>
@@ -21239,7 +21239,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="113" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>662</v>
       </c>
@@ -21263,7 +21263,7 @@
       </c>
       <c r="H113" t="str">
         <f t="shared" si="1"/>
-        <v>{ new CountryInfo("EU", "JE", 832, "Jersey", "Saint Helier", "en", "44-1534") },</v>
+        <v>{ new CountryInfo("EU", "JE","JEY", 832, "Jersey", "Saint Helier", "en", "44-1534") },</v>
       </c>
       <c r="S113" t="s">
         <v>662</v>
@@ -21297,7 +21297,7 @@
         <v>44-1534</v>
       </c>
     </row>
-    <row r="114" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>673</v>
       </c>
@@ -21321,7 +21321,7 @@
       </c>
       <c r="H114" t="str">
         <f t="shared" si="1"/>
-        <v>{ new CountryInfo("AS", "JO", 400, "Jordan", "Amman", "ar", "962") },</v>
+        <v>{ new CountryInfo("AS", "JO","JOR", 400, "Jordan", "Amman", "ar", "962") },</v>
       </c>
       <c r="S114" t="s">
         <v>673</v>
@@ -21355,7 +21355,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="115" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>747</v>
       </c>
@@ -21379,7 +21379,7 @@
       </c>
       <c r="H115" t="str">
         <f t="shared" si="1"/>
-        <v>{ new CountryInfo("AS", "KZ", 398, "Kazakhstan", "Astana", "kk,ru", "7") },</v>
+        <v>{ new CountryInfo("AS", "KZ","KAZ", 398, "Kazakhstan", "Astana", "kk,ru", "7") },</v>
       </c>
       <c r="S115" t="s">
         <v>747</v>
@@ -21413,7 +21413,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="116" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>686</v>
       </c>
@@ -21437,7 +21437,7 @@
       </c>
       <c r="H116" t="str">
         <f t="shared" si="1"/>
-        <v>{ new CountryInfo("AF", "KE", 404, "Kenya", "Nairobi", "dav,ebu,en,guz,kam,ki,kln,luo,luy,mas,mer,om,saq,so,sw,teo", "254") },</v>
+        <v>{ new CountryInfo("AF", "KE","KEN", 404, "Kenya", "Nairobi", "dav,ebu,en,guz,kam,ki,kln,luo,luy,mas,mer,om,saq,so,sw,teo", "254") },</v>
       </c>
       <c r="S116" t="s">
         <v>686</v>
@@ -21471,7 +21471,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="117" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>705</v>
       </c>
@@ -21495,7 +21495,7 @@
       </c>
       <c r="H117" t="str">
         <f t="shared" si="1"/>
-        <v>{ new CountryInfo("OC", "KI", 296, "Kiribati", "Tarawa", "en", "686") },</v>
+        <v>{ new CountryInfo("OC", "KI","KIR", 296, "Kiribati", "Tarawa", "en", "686") },</v>
       </c>
       <c r="S117" t="s">
         <v>705</v>
@@ -21529,7 +21529,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="118" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>1442</v>
       </c>
@@ -21553,7 +21553,7 @@
       </c>
       <c r="H118" t="str">
         <f t="shared" si="1"/>
-        <v>{ new CountryInfo("EU", "XK", 0, "Kosovo", "Pristina", "sq,sr", "383") },</v>
+        <v>{ new CountryInfo("EU", "XK","XKX", 0, "Kosovo", "Pristina", "sq,sr", "383") },</v>
       </c>
       <c r="S118" t="s">
         <v>1442</v>
@@ -21587,7 +21587,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="119" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>734</v>
       </c>
@@ -21611,7 +21611,7 @@
       </c>
       <c r="H119" t="str">
         <f t="shared" si="1"/>
-        <v>{ new CountryInfo("AS", "KW", 414, "Kuwait", "Kuwait City", "ar", "965") },</v>
+        <v>{ new CountryInfo("AS", "KW","KWT", 414, "Kuwait", "Kuwait City", "ar", "965") },</v>
       </c>
       <c r="S119" t="s">
         <v>734</v>
@@ -21645,7 +21645,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="120" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>692</v>
       </c>
@@ -21669,7 +21669,7 @@
       </c>
       <c r="H120" t="str">
         <f t="shared" si="1"/>
-        <v>{ new CountryInfo("AS", "KG", 417, "Kyrgyzstan", "Bishkek", "ky,ru", "996") },</v>
+        <v>{ new CountryInfo("AS", "KG","KGZ", 417, "Kyrgyzstan", "Bishkek", "ky,ru", "996") },</v>
       </c>
       <c r="S120" t="s">
         <v>692</v>
@@ -21703,7 +21703,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="121" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>753</v>
       </c>
@@ -21727,7 +21727,7 @@
       </c>
       <c r="H121" t="str">
         <f t="shared" si="1"/>
-        <v>{ new CountryInfo("AS", "LA", 418, "Laos", "Vientiane", "lo", "856") },</v>
+        <v>{ new CountryInfo("AS", "LA","LAO", 418, "Laos", "Vientiane", "lo", "856") },</v>
       </c>
       <c r="S121" t="s">
         <v>753</v>
@@ -21761,7 +21761,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="122" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>807</v>
       </c>
@@ -21785,7 +21785,7 @@
       </c>
       <c r="H122" t="str">
         <f t="shared" si="1"/>
-        <v>{ new CountryInfo("EU", "LV", 428, "Latvia", "Riga", "lv", "371") },</v>
+        <v>{ new CountryInfo("EU", "LV","LVA", 428, "Latvia", "Riga", "lv", "371") },</v>
       </c>
       <c r="S122" t="s">
         <v>807</v>
@@ -21819,7 +21819,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="123" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>759</v>
       </c>
@@ -21843,7 +21843,7 @@
       </c>
       <c r="H123" t="str">
         <f t="shared" si="1"/>
-        <v>{ new CountryInfo("AS", "LB", 422, "Lebanon", "Beirut", "ar", "961") },</v>
+        <v>{ new CountryInfo("AS", "LB","LBN", 422, "Lebanon", "Beirut", "ar", "961") },</v>
       </c>
       <c r="S123" t="s">
         <v>759</v>
@@ -21877,7 +21877,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="124" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>774</v>
       </c>
@@ -21901,7 +21901,7 @@
       </c>
       <c r="H124" t="str">
         <f t="shared" si="1"/>
-        <v>{ new CountryInfo("AF", "LS", 426, "Lesotho", "Maseru", "en,st", "266") },</v>
+        <v>{ new CountryInfo("AF", "LS","LSO", 426, "Lesotho", "Maseru", "en,st", "266") },</v>
       </c>
       <c r="S124" t="s">
         <v>774</v>
@@ -21935,7 +21935,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="125" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>785</v>
       </c>
@@ -21959,7 +21959,7 @@
       </c>
       <c r="H125" t="str">
         <f t="shared" si="1"/>
-        <v>{ new CountryInfo("AF", "LR", 430, "Liberia", "Monrovia", "en,vai,vai", "231") },</v>
+        <v>{ new CountryInfo("AF", "LR","LBR", 430, "Liberia", "Monrovia", "en,vai,vai", "231") },</v>
       </c>
       <c r="S125" t="s">
         <v>785</v>
@@ -21993,7 +21993,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="126" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>814</v>
       </c>
@@ -22017,7 +22017,7 @@
       </c>
       <c r="H126" t="str">
         <f t="shared" si="1"/>
-        <v>{ new CountryInfo("AF", "LY", 434, "Libya", "Tripoli", "ar", "218") },</v>
+        <v>{ new CountryInfo("AF", "LY","LBY", 434, "Libya", "Tripoli", "ar", "218") },</v>
       </c>
       <c r="S126" t="s">
         <v>814</v>
@@ -22051,7 +22051,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="127" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>772</v>
       </c>
@@ -22075,7 +22075,7 @@
       </c>
       <c r="H127" t="str">
         <f t="shared" si="1"/>
-        <v>{ new CountryInfo("EU", "LI", 438, "Liechtenstein", "Vaduz", "de,gsw", "423") },</v>
+        <v>{ new CountryInfo("EU", "LI","LIE", 438, "Liechtenstein", "Vaduz", "de,gsw", "423") },</v>
       </c>
       <c r="S127" t="s">
         <v>772</v>
@@ -22109,7 +22109,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="128" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>792</v>
       </c>
@@ -22133,7 +22133,7 @@
       </c>
       <c r="H128" t="str">
         <f t="shared" si="1"/>
-        <v>{ new CountryInfo("EU", "LT", 440, "Lithuania", "Vilnius", "lt", "370") },</v>
+        <v>{ new CountryInfo("EU", "LT","LTU", 440, "Lithuania", "Vilnius", "lt", "370") },</v>
       </c>
       <c r="S128" t="s">
         <v>792</v>
@@ -22167,7 +22167,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="129" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>803</v>
       </c>
@@ -22191,7 +22191,7 @@
       </c>
       <c r="H129" t="str">
         <f t="shared" si="1"/>
-        <v>{ new CountryInfo("EU", "LU", 442, "Luxembourg", "Luxembourg", "de,fr,lb,pt", "352") },</v>
+        <v>{ new CountryInfo("EU", "LU","LUX", 442, "Luxembourg", "Luxembourg", "de,fr,lb,pt", "352") },</v>
       </c>
       <c r="S129" t="s">
         <v>803</v>
@@ -22225,7 +22225,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="130" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>822</v>
       </c>
@@ -22248,8 +22248,8 @@
         <v>1554</v>
       </c>
       <c r="H130" t="str">
-        <f t="shared" ref="H130:H193" si="2">_xlfn.CONCAT("{ new CountryInfo(""",F130,""", """,A130,""", ",C130,", """,D130,""", """,E130,""", """,G130,""", """,AB130,""") },")</f>
-        <v>{ new CountryInfo("AS", "MO", 446, "Macao", "Macao", "en,pt,zh,zh", "853") },</v>
+        <f t="shared" ref="H130:H193" si="2">_xlfn.CONCAT("{ new CountryInfo(""",F130,""", """,A130,""",""",B130,""", ",C130,", """,D130,""", """,E130,""", """,G130,""", """,AB130,""") },")</f>
+        <v>{ new CountryInfo("AS", "MO","MAC", 446, "Macao", "Macao", "en,pt,zh,zh", "853") },</v>
       </c>
       <c r="S130" t="s">
         <v>822</v>
@@ -22283,7 +22283,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="131" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>861</v>
       </c>
@@ -22307,7 +22307,7 @@
       </c>
       <c r="H131" t="str">
         <f t="shared" si="2"/>
-        <v>{ new CountryInfo("EU", "MK", 807, "North Macedonia", "Skopje", "mk,sq", "389") },</v>
+        <v>{ new CountryInfo("EU", "MK","MKD", 807, "North Macedonia", "Skopje", "mk,sq", "389") },</v>
       </c>
       <c r="S131" t="s">
         <v>861</v>
@@ -22341,7 +22341,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="132" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>849</v>
       </c>
@@ -22365,7 +22365,7 @@
       </c>
       <c r="H132" t="str">
         <f t="shared" si="2"/>
-        <v>{ new CountryInfo("AF", "MG", 450, "Madagascar", "Antananarivo", "en,fr,mg", "261") },</v>
+        <v>{ new CountryInfo("AF", "MG","MDG", 450, "Madagascar", "Antananarivo", "en,fr,mg", "261") },</v>
       </c>
       <c r="S132" t="s">
         <v>849</v>
@@ -22399,7 +22399,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="133" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>925</v>
       </c>
@@ -22423,7 +22423,7 @@
       </c>
       <c r="H133" t="str">
         <f t="shared" si="2"/>
-        <v>{ new CountryInfo("AF", "MW", 454, "Malawi", "Lilongwe", "en", "265") },</v>
+        <v>{ new CountryInfo("AF", "MW","MWI", 454, "Malawi", "Lilongwe", "en", "265") },</v>
       </c>
       <c r="S133" t="s">
         <v>925</v>
@@ -22457,7 +22457,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="134" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>938</v>
       </c>
@@ -22481,7 +22481,7 @@
       </c>
       <c r="H134" t="str">
         <f t="shared" si="2"/>
-        <v>{ new CountryInfo("AS", "MY", 458, "Malaysia", "Kuala Lumpur", "en,ms,ta", "60") },</v>
+        <v>{ new CountryInfo("AS", "MY","MYS", 458, "Malaysia", "Kuala Lumpur", "en,ms,ta", "60") },</v>
       </c>
       <c r="S134" t="s">
         <v>938</v>
@@ -22515,7 +22515,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="135" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>920</v>
       </c>
@@ -22539,7 +22539,7 @@
       </c>
       <c r="H135" t="str">
         <f t="shared" si="2"/>
-        <v>{ new CountryInfo("AS", "MV", 462, "Maldives", "Male", "dv", "960") },</v>
+        <v>{ new CountryInfo("AS", "MV","MDV", 462, "Maldives", "Male", "dv", "960") },</v>
       </c>
       <c r="S135" t="s">
         <v>920</v>
@@ -22573,7 +22573,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="136" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>867</v>
       </c>
@@ -22597,7 +22597,7 @@
       </c>
       <c r="H136" t="str">
         <f t="shared" si="2"/>
-        <v>{ new CountryInfo("AF", "ML", 466, "Mali", "Bamako", "bm,fr,khq,ses", "223") },</v>
+        <v>{ new CountryInfo("AF", "ML","MLI", 466, "Mali", "Bamako", "bm,fr,khq,ses", "223") },</v>
       </c>
       <c r="S136" t="s">
         <v>867</v>
@@ -22631,7 +22631,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="137" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>909</v>
       </c>
@@ -22655,7 +22655,7 @@
       </c>
       <c r="H137" t="str">
         <f t="shared" si="2"/>
-        <v>{ new CountryInfo("EU", "MT", 470, "Malta", "Valletta", "en,mt", "356") },</v>
+        <v>{ new CountryInfo("EU", "MT","MLT", 470, "Malta", "Valletta", "en,mt", "356") },</v>
       </c>
       <c r="S137" t="s">
         <v>909</v>
@@ -22689,7 +22689,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="138" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>855</v>
       </c>
@@ -22713,7 +22713,7 @@
       </c>
       <c r="H138" t="str">
         <f t="shared" si="2"/>
-        <v>{ new CountryInfo("OC", "MH", 584, "Marshall Islands", "Majuro", "en", "692") },</v>
+        <v>{ new CountryInfo("OC", "MH","MHL", 584, "Marshall Islands", "Majuro", "en", "692") },</v>
       </c>
       <c r="S138" t="s">
         <v>855</v>
@@ -22747,7 +22747,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="139" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>893</v>
       </c>
@@ -22771,7 +22771,7 @@
       </c>
       <c r="H139" t="str">
         <f t="shared" si="2"/>
-        <v>{ new CountryInfo("NA", "MQ", 474, "Martinique", "Fort-de-France", "fr", "596") },</v>
+        <v>{ new CountryInfo("NA", "MQ","MTQ", 474, "Martinique", "Fort-de-France", "fr", "596") },</v>
       </c>
       <c r="S139" t="s">
         <v>893</v>
@@ -22805,7 +22805,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="140" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>899</v>
       </c>
@@ -22829,7 +22829,7 @@
       </c>
       <c r="H140" t="str">
         <f t="shared" si="2"/>
-        <v>{ new CountryInfo("AF", "MR", 478, "Mauritania", "Nouakchott", "ar,ff,fr", "222") },</v>
+        <v>{ new CountryInfo("AF", "MR","MRT", 478, "Mauritania", "Nouakchott", "ar,ff,fr", "222") },</v>
       </c>
       <c r="S140" t="s">
         <v>899</v>
@@ -22863,7 +22863,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="141" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>914</v>
       </c>
@@ -22887,7 +22887,7 @@
       </c>
       <c r="H141" t="str">
         <f t="shared" si="2"/>
-        <v>{ new CountryInfo("AF", "MU", 480, "Mauritius", "Port Louis", "en,fr,mfe", "230") },</v>
+        <v>{ new CountryInfo("AF", "MU","MUS", 480, "Mauritius", "Port Louis", "en,fr,mfe", "230") },</v>
       </c>
       <c r="S141" t="s">
         <v>914</v>
@@ -22921,7 +22921,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="142" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>1456</v>
       </c>
@@ -22945,7 +22945,7 @@
       </c>
       <c r="H142" t="str">
         <f t="shared" si="2"/>
-        <v>{ new CountryInfo("AF", "YT", 175, "Mayotte", "Mamoudzou", "fr", "262") },</v>
+        <v>{ new CountryInfo("AF", "YT","MYT", 175, "Mayotte", "Mamoudzou", "fr", "262") },</v>
       </c>
       <c r="S142" t="s">
         <v>1456</v>
@@ -22979,7 +22979,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="143" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>932</v>
       </c>
@@ -23003,7 +23003,7 @@
       </c>
       <c r="H143" t="str">
         <f t="shared" si="2"/>
-        <v>{ new CountryInfo("NA", "MX", 484, "Mexico", "Mexico City", "es", "52") },</v>
+        <v>{ new CountryInfo("NA", "MX","MEX", 484, "Mexico", "Mexico City", "es", "52") },</v>
       </c>
       <c r="S143" t="s">
         <v>932</v>
@@ -23037,7 +23037,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="144" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>440</v>
       </c>
@@ -23061,7 +23061,7 @@
       </c>
       <c r="H144" t="str">
         <f t="shared" si="2"/>
-        <v>{ new CountryInfo("OC", "FM", 583, "Micronesia", "Palikir", "en", "691") },</v>
+        <v>{ new CountryInfo("OC", "FM","FSM", 583, "Micronesia", "Palikir", "en", "691") },</v>
       </c>
       <c r="S144" t="s">
         <v>440</v>
@@ -23095,7 +23095,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="145" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>832</v>
       </c>
@@ -23119,7 +23119,7 @@
       </c>
       <c r="H145" t="str">
         <f t="shared" si="2"/>
-        <v>{ new CountryInfo("EU", "MD", 498, "Moldova", "Chisinau", "ro,ru", "373") },</v>
+        <v>{ new CountryInfo("EU", "MD","MDA", 498, "Moldova", "Chisinau", "ro,ru", "373") },</v>
       </c>
       <c r="S145" t="s">
         <v>832</v>
@@ -23153,7 +23153,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="146" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>827</v>
       </c>
@@ -23177,7 +23177,7 @@
       </c>
       <c r="H146" t="str">
         <f t="shared" si="2"/>
-        <v>{ new CountryInfo("EU", "MC", 492, "Monaco", "Monaco", "fr", "377") },</v>
+        <v>{ new CountryInfo("EU", "MC","MCO", 492, "Monaco", "Monaco", "fr", "377") },</v>
       </c>
       <c r="S146" t="s">
         <v>827</v>
@@ -23211,7 +23211,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="147" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>829</v>
       </c>
@@ -23235,7 +23235,7 @@
       </c>
       <c r="H147" t="str">
         <f t="shared" si="2"/>
-        <v>{ new CountryInfo("AS", "MN", 496, "Mongolia", "Ulan Bator", "mn,mn", "976") },</v>
+        <v>{ new CountryInfo("AS", "MN","MNG", 496, "Mongolia", "Ulan Bator", "mn,mn", "976") },</v>
       </c>
       <c r="S147" t="s">
         <v>829</v>
@@ -23269,7 +23269,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="148" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>838</v>
       </c>
@@ -23293,7 +23293,7 @@
       </c>
       <c r="H148" t="str">
         <f t="shared" si="2"/>
-        <v>{ new CountryInfo("EU", "ME", 499, "Montenegro", "Podgorica", "sr,sr", "382") },</v>
+        <v>{ new CountryInfo("EU", "ME","MNE", 499, "Montenegro", "Podgorica", "sr,sr", "382") },</v>
       </c>
       <c r="S148" t="s">
         <v>838</v>
@@ -23327,7 +23327,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="149" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>905</v>
       </c>
@@ -23351,7 +23351,7 @@
       </c>
       <c r="H149" t="str">
         <f t="shared" si="2"/>
-        <v>{ new CountryInfo("NA", "MS", 500, "Montserrat", "Plymouth", "en", "1-664") },</v>
+        <v>{ new CountryInfo("NA", "MS","MSR", 500, "Montserrat", "Plymouth", "en", "1-664") },</v>
       </c>
       <c r="S149" t="s">
         <v>905</v>
@@ -23385,7 +23385,7 @@
         <v>1-664</v>
       </c>
     </row>
-    <row r="150" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>820</v>
       </c>
@@ -23409,7 +23409,7 @@
       </c>
       <c r="H150" t="str">
         <f t="shared" si="2"/>
-        <v>{ new CountryInfo("AF", "MA", 504, "Morocco", "Rabat", "ar,fr,shi,shi,tzm,tzm,tzm,zgh", "212") },</v>
+        <v>{ new CountryInfo("AF", "MA","MAR", 504, "Morocco", "Rabat", "ar,fr,shi,shi,tzm,tzm,tzm,zgh", "212") },</v>
       </c>
       <c r="S150" t="s">
         <v>820</v>
@@ -23443,7 +23443,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="151" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>944</v>
       </c>
@@ -23467,7 +23467,7 @@
       </c>
       <c r="H151" t="str">
         <f t="shared" si="2"/>
-        <v>{ new CountryInfo("AF", "MZ", 508, "Mozambique", "Maputo", "mgh,pt,seh", "258") },</v>
+        <v>{ new CountryInfo("AF", "MZ","MOZ", 508, "Mozambique", "Maputo", "mgh,pt,seh", "258") },</v>
       </c>
       <c r="S151" t="s">
         <v>944</v>
@@ -23501,7 +23501,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="152" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>873</v>
       </c>
@@ -23525,7 +23525,7 @@
       </c>
       <c r="H152" t="str">
         <f t="shared" si="2"/>
-        <v>{ new CountryInfo("AS", "MM", 104, "Myanmar [Burma]", "Nay Pyi Taw", "my", "95") },</v>
+        <v>{ new CountryInfo("AS", "MM","MMR", 104, "Myanmar [Burma]", "Nay Pyi Taw", "my", "95") },</v>
       </c>
       <c r="S152" t="s">
         <v>873</v>
@@ -23559,7 +23559,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="153" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>26</v>
       </c>
@@ -23583,7 +23583,7 @@
       </c>
       <c r="H153" t="str">
         <f t="shared" si="2"/>
-        <v>{ new CountryInfo("AF", "NA", 516, "Namibia", "Windhoek", "af,en,naq", "264") },</v>
+        <v>{ new CountryInfo("AF", "NA","NAM", 516, "Namibia", "Windhoek", "af,en,naq", "264") },</v>
       </c>
       <c r="S153" t="s">
         <v>26</v>
@@ -23617,7 +23617,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="154" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>1002</v>
       </c>
@@ -23641,7 +23641,7 @@
       </c>
       <c r="H154" t="str">
         <f t="shared" si="2"/>
-        <v>{ new CountryInfo("OC", "NR", 520, "Nauru", "Yaren", "en", "674") },</v>
+        <v>{ new CountryInfo("OC", "NR","NRU", 520, "Nauru", "Yaren", "en", "674") },</v>
       </c>
       <c r="S154" t="s">
         <v>1002</v>
@@ -23675,7 +23675,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="155" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>996</v>
       </c>
@@ -23699,7 +23699,7 @@
       </c>
       <c r="H155" t="str">
         <f t="shared" si="2"/>
-        <v>{ new CountryInfo("AS", "NP", 524, "Nepal", "Kathmandu", "ne", "977") },</v>
+        <v>{ new CountryInfo("AS", "NP","NPL", 524, "Nepal", "Kathmandu", "ne", "977") },</v>
       </c>
       <c r="S155" t="s">
         <v>996</v>
@@ -23733,7 +23733,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="156" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>984</v>
       </c>
@@ -23757,7 +23757,7 @@
       </c>
       <c r="H156" t="str">
         <f t="shared" si="2"/>
-        <v>{ new CountryInfo("EU", "NL", 528, "Netherlands", "Amsterdam", "en,fy,nds,nl", "31") },</v>
+        <v>{ new CountryInfo("EU", "NL","NLD", 528, "Netherlands", "Amsterdam", "en,fy,nds,nl", "31") },</v>
       </c>
       <c r="S156" t="s">
         <v>984</v>
@@ -23791,7 +23791,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="157" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>2</v>
       </c>
@@ -23815,7 +23815,7 @@
       </c>
       <c r="H157" t="str">
         <f t="shared" si="2"/>
-        <v>{ new CountryInfo("NA", "AN", 530, "Netherlands Antilles", "Willemstad", "nl,en,es", "599") },</v>
+        <v>{ new CountryInfo("NA", "AN","ANT", 530, "Netherlands Antilles", "Willemstad", "nl,en,es", "599") },</v>
       </c>
       <c r="S157" t="s">
         <v>2</v>
@@ -23849,7 +23849,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="158" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>956</v>
       </c>
@@ -23873,7 +23873,7 @@
       </c>
       <c r="H158" t="str">
         <f t="shared" si="2"/>
-        <v>{ new CountryInfo("OC", "NC", 540, "New Caledonia", "Noumea", "fr", "687") },</v>
+        <v>{ new CountryInfo("OC", "NC","NCL", 540, "New Caledonia", "Noumea", "fr", "687") },</v>
       </c>
       <c r="S158" t="s">
         <v>956</v>
@@ -23907,7 +23907,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="159" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>1010</v>
       </c>
@@ -23931,7 +23931,7 @@
       </c>
       <c r="H159" t="str">
         <f t="shared" si="2"/>
-        <v>{ new CountryInfo("OC", "NZ", 554, "New Zealand", "Wellington", "en,mi", "64") },</v>
+        <v>{ new CountryInfo("OC", "NZ","NZL", 554, "New Zealand", "Wellington", "en,mi", "64") },</v>
       </c>
       <c r="S159" t="s">
         <v>1010</v>
@@ -23965,7 +23965,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="160" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>973</v>
       </c>
@@ -23989,7 +23989,7 @@
       </c>
       <c r="H160" t="str">
         <f t="shared" si="2"/>
-        <v>{ new CountryInfo("NA", "NI", 558, "Nicaragua", "Managua", "es", "505") },</v>
+        <v>{ new CountryInfo("NA", "NI","NIC", 558, "Nicaragua", "Managua", "es", "505") },</v>
       </c>
       <c r="S160" t="s">
         <v>973</v>
@@ -24023,7 +24023,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="161" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>961</v>
       </c>
@@ -24047,7 +24047,7 @@
       </c>
       <c r="H161" t="str">
         <f t="shared" si="2"/>
-        <v>{ new CountryInfo("AF", "NE", 562, "Niger", "Niamey", "dje,fr,ha,twq", "227") },</v>
+        <v>{ new CountryInfo("AF", "NE","NER", 562, "Niger", "Niamey", "dje,fr,ha,twq", "227") },</v>
       </c>
       <c r="S161" t="s">
         <v>961</v>
@@ -24081,7 +24081,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="162" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>963</v>
       </c>
@@ -24105,7 +24105,7 @@
       </c>
       <c r="H162" t="str">
         <f t="shared" si="2"/>
-        <v>{ new CountryInfo("AF", "NG", 566, "Nigeria", "Abuja", "bin,en,ff,ha,ibb,ig,kr,yo", "234") },</v>
+        <v>{ new CountryInfo("AF", "NG","NGA", 566, "Nigeria", "Abuja", "bin,en,ff,ha,ibb,ig,kr,yo", "234") },</v>
       </c>
       <c r="S162" t="s">
         <v>963</v>
@@ -24139,7 +24139,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="163" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>979</v>
       </c>
@@ -24163,7 +24163,7 @@
       </c>
       <c r="H163" t="str">
         <f t="shared" si="2"/>
-        <v>{ new CountryInfo("OC", "NU", 570, "Niue", "Alofi", "en", "683") },</v>
+        <v>{ new CountryInfo("OC", "NU","NIU", 570, "Niue", "Alofi", "en", "683") },</v>
       </c>
       <c r="S163" t="s">
         <v>979</v>
@@ -24197,7 +24197,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="164" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>968</v>
       </c>
@@ -24221,7 +24221,7 @@
       </c>
       <c r="H164" t="str">
         <f t="shared" si="2"/>
-        <v>{ new CountryInfo("OC", "NF", 574, "Norfolk Island", "Kingston", "en", "672-3") },</v>
+        <v>{ new CountryInfo("OC", "NF","NFK", 574, "Norfolk Island", "Kingston", "en", "672-3") },</v>
       </c>
       <c r="S164" t="s">
         <v>968</v>
@@ -24255,7 +24255,7 @@
         <v>672-3</v>
       </c>
     </row>
-    <row r="165" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>722</v>
       </c>
@@ -24279,7 +24279,7 @@
       </c>
       <c r="H165" t="str">
         <f t="shared" si="2"/>
-        <v>{ new CountryInfo("AS", "KP", 408, "North Korea", "Pyongyang", "ko", "850") },</v>
+        <v>{ new CountryInfo("AS", "KP","PRK", 408, "North Korea", "Pyongyang", "ko", "850") },</v>
       </c>
       <c r="S165" t="s">
         <v>722</v>
@@ -24313,7 +24313,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="166" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>887</v>
       </c>
@@ -24337,7 +24337,7 @@
       </c>
       <c r="H166" t="str">
         <f t="shared" si="2"/>
-        <v>{ new CountryInfo("OC", "MP", 580, "Northern Mariana Islands", "Saipan", "en", "1-670") },</v>
+        <v>{ new CountryInfo("OC", "MP","MNP", 580, "Northern Mariana Islands", "Saipan", "en", "1-670") },</v>
       </c>
       <c r="S166" t="s">
         <v>887</v>
@@ -24371,7 +24371,7 @@
         <v>1-670</v>
       </c>
     </row>
-    <row r="167" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>990</v>
       </c>
@@ -24395,7 +24395,7 @@
       </c>
       <c r="H167" t="str">
         <f t="shared" si="2"/>
-        <v>{ new CountryInfo("EU", "NO", 578, "Norway", "Oslo", "nb,nn,se,sma,smj", "47") },</v>
+        <v>{ new CountryInfo("EU", "NO","NOR", 578, "Norway", "Oslo", "nb,nn,se,sma,smj", "47") },</v>
       </c>
       <c r="S167" t="s">
         <v>990</v>
@@ -24429,7 +24429,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="168" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>1016</v>
       </c>
@@ -24453,7 +24453,7 @@
       </c>
       <c r="H168" t="str">
         <f t="shared" si="2"/>
-        <v>{ new CountryInfo("AS", "OM", 512, "Oman", "Muscat", "ar", "968") },</v>
+        <v>{ new CountryInfo("AS", "OM","OMN", 512, "Oman", "Muscat", "ar", "968") },</v>
       </c>
       <c r="S168" t="s">
         <v>1016</v>
@@ -24487,7 +24487,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="169" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>1055</v>
       </c>
@@ -24511,7 +24511,7 @@
       </c>
       <c r="H169" t="str">
         <f t="shared" si="2"/>
-        <v>{ new CountryInfo("AS", "PK", 586, "Pakistan", "Islamabad", "en,pa,sd,ur", "92") },</v>
+        <v>{ new CountryInfo("AS", "PK","PAK", 586, "Pakistan", "Islamabad", "en,pa,sd,ur", "92") },</v>
       </c>
       <c r="S169" t="s">
         <v>1055</v>
@@ -24545,7 +24545,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="170" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>1099</v>
       </c>
@@ -24569,7 +24569,7 @@
       </c>
       <c r="H170" t="str">
         <f t="shared" si="2"/>
-        <v>{ new CountryInfo("OC", "PW", 585, "Palau", "Melekeok", "en", "680") },</v>
+        <v>{ new CountryInfo("OC", "PW","PLW", 585, "Palau", "Melekeok", "en", "680") },</v>
       </c>
       <c r="S170" t="s">
         <v>1099</v>
@@ -24603,7 +24603,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="171" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>1085</v>
       </c>
@@ -24627,7 +24627,7 @@
       </c>
       <c r="H171" t="str">
         <f t="shared" si="2"/>
-        <v>{ new CountryInfo("AS", "PS", 275, "Palestine", "East Jerusalem", "ar", "970") },</v>
+        <v>{ new CountryInfo("AS", "PS","PSE", 275, "Palestine", "East Jerusalem", "ar", "970") },</v>
       </c>
       <c r="S171" t="s">
         <v>1085</v>
@@ -24661,7 +24661,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="172" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>1022</v>
       </c>
@@ -24685,7 +24685,7 @@
       </c>
       <c r="H172" t="str">
         <f t="shared" si="2"/>
-        <v>{ new CountryInfo("NA", "PA", 591, "Panama", "Panama City", "es", "507") },</v>
+        <v>{ new CountryInfo("NA", "PA","PAN", 591, "Panama", "Panama City", "es", "507") },</v>
       </c>
       <c r="S172" t="s">
         <v>1022</v>
@@ -24719,7 +24719,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="173" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>1041</v>
       </c>
@@ -24743,7 +24743,7 @@
       </c>
       <c r="H173" t="str">
         <f t="shared" si="2"/>
-        <v>{ new CountryInfo("OC", "PG", 598, "Papua New Guinea", "Port Moresby", "en", "675") },</v>
+        <v>{ new CountryInfo("OC", "PG","PNG", 598, "Papua New Guinea", "Port Moresby", "en", "675") },</v>
       </c>
       <c r="S173" t="s">
         <v>1041</v>
@@ -24777,7 +24777,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="174" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>1104</v>
       </c>
@@ -24801,7 +24801,7 @@
       </c>
       <c r="H174" t="str">
         <f t="shared" si="2"/>
-        <v>{ new CountryInfo("SA", "PY", 600, "Paraguay", "Asuncion", "es,gn", "595") },</v>
+        <v>{ new CountryInfo("SA", "PY","PRY", 600, "Paraguay", "Asuncion", "es,gn", "595") },</v>
       </c>
       <c r="S174" t="s">
         <v>1104</v>
@@ -24835,7 +24835,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="175" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>1029</v>
       </c>
@@ -24859,7 +24859,7 @@
       </c>
       <c r="H175" t="str">
         <f t="shared" si="2"/>
-        <v>{ new CountryInfo("SA", "PE", 604, "Peru", "Lima", "es,quz", "51") },</v>
+        <v>{ new CountryInfo("SA", "PE","PER", 604, "Peru", "Lima", "es,quz", "51") },</v>
       </c>
       <c r="S175" t="s">
         <v>1029</v>
@@ -24893,7 +24893,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="176" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>1048</v>
       </c>
@@ -24917,7 +24917,7 @@
       </c>
       <c r="H176" t="str">
         <f t="shared" si="2"/>
-        <v>{ new CountryInfo("AS", "PH", 608, "Philippines", "Manila", "en,es,fil", "63") },</v>
+        <v>{ new CountryInfo("AS", "PH","PHL", 608, "Philippines", "Manila", "en,es,fil", "63") },</v>
       </c>
       <c r="S176" t="s">
         <v>1048</v>
@@ -24951,7 +24951,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="177" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>1072</v>
       </c>
@@ -24975,7 +24975,7 @@
       </c>
       <c r="H177" t="str">
         <f t="shared" si="2"/>
-        <v>{ new CountryInfo("OC", "PN", 612, "Pitcairn Islands", "Adamstown", "en", "64") },</v>
+        <v>{ new CountryInfo("OC", "PN","PCN", 612, "Pitcairn Islands", "Adamstown", "en", "64") },</v>
       </c>
       <c r="S177" t="s">
         <v>1072</v>
@@ -25009,7 +25009,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="178" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>1061</v>
       </c>
@@ -25033,7 +25033,7 @@
       </c>
       <c r="H178" t="str">
         <f t="shared" si="2"/>
-        <v>{ new CountryInfo("EU", "PL", 616, "Poland", "Warsaw", "pl", "48") },</v>
+        <v>{ new CountryInfo("EU", "PL","POL", 616, "Poland", "Warsaw", "pl", "48") },</v>
       </c>
       <c r="S178" t="s">
         <v>1061</v>
@@ -25067,7 +25067,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="179" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>1092</v>
       </c>
@@ -25091,7 +25091,7 @@
       </c>
       <c r="H179" t="str">
         <f t="shared" si="2"/>
-        <v>{ new CountryInfo("EU", "PT", 620, "Portugal", "Lisbon", "pt", "351") },</v>
+        <v>{ new CountryInfo("EU", "PT","PRT", 620, "Portugal", "Lisbon", "pt", "351") },</v>
       </c>
       <c r="S179" t="s">
         <v>1092</v>
@@ -25125,7 +25125,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="180" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>1078</v>
       </c>
@@ -25149,7 +25149,7 @@
       </c>
       <c r="H180" t="str">
         <f t="shared" si="2"/>
-        <v>{ new CountryInfo("NA", "PR", 630, "Puerto Rico", "San Juan", "en,es", "1-787, 1-939") },</v>
+        <v>{ new CountryInfo("NA", "PR","PRI", 630, "Puerto Rico", "San Juan", "en,es", "1-787, 1-939") },</v>
       </c>
       <c r="S180" t="s">
         <v>1078</v>
@@ -25183,7 +25183,7 @@
         <v>1-787, 1-939</v>
       </c>
     </row>
-    <row r="181" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>1110</v>
       </c>
@@ -25207,7 +25207,7 @@
       </c>
       <c r="H181" t="str">
         <f t="shared" si="2"/>
-        <v>{ new CountryInfo("AS", "QA", 634, "Qatar", "Doha", "ar", "974") },</v>
+        <v>{ new CountryInfo("AS", "QA","QAT", 634, "Qatar", "Doha", "ar", "974") },</v>
       </c>
       <c r="S181" t="s">
         <v>1110</v>
@@ -25241,7 +25241,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="182" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>237</v>
       </c>
@@ -25265,7 +25265,7 @@
       </c>
       <c r="H182" t="str">
         <f t="shared" si="2"/>
-        <v>{ new CountryInfo("AF", "CG", 178, "Republic of the Congo", "Brazzaville", "fr,ln", "242") },</v>
+        <v>{ new CountryInfo("AF", "CG","COG", 178, "Republic of the Congo", "Brazzaville", "fr,ln", "242") },</v>
       </c>
       <c r="S182" t="s">
         <v>237</v>
@@ -25299,7 +25299,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="183" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>1115</v>
       </c>
@@ -25323,7 +25323,7 @@
       </c>
       <c r="H183" t="str">
         <f t="shared" si="2"/>
-        <v>{ new CountryInfo("AF", "RE", 638, "Réunion", "Saint-Denis", "fr", "262") },</v>
+        <v>{ new CountryInfo("AF", "RE","REU", 638, "Réunion", "Saint-Denis", "fr", "262") },</v>
       </c>
       <c r="S183" t="s">
         <v>1115</v>
@@ -25357,7 +25357,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="184" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>1120</v>
       </c>
@@ -25381,7 +25381,7 @@
       </c>
       <c r="H184" t="str">
         <f t="shared" si="2"/>
-        <v>{ new CountryInfo("EU", "RO", 642, "Romania", "Bucharest", "ro", "40") },</v>
+        <v>{ new CountryInfo("EU", "RO","ROU", 642, "Romania", "Bucharest", "ro", "40") },</v>
       </c>
       <c r="S184" t="s">
         <v>1120</v>
@@ -25415,7 +25415,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="185" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>1132</v>
       </c>
@@ -25439,7 +25439,7 @@
       </c>
       <c r="H185" t="str">
         <f t="shared" si="2"/>
-        <v>{ new CountryInfo("EU", "RU", 643, "Russia", "Moscow", "ru,ba,ce,cu,os,sah,tt", "7") },</v>
+        <v>{ new CountryInfo("EU", "RU","RUS", 643, "Russia", "Moscow", "ru,ba,ce,cu,os,sah,tt", "7") },</v>
       </c>
       <c r="S185" t="s">
         <v>1132</v>
@@ -25473,7 +25473,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="186" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>1138</v>
       </c>
@@ -25497,7 +25497,7 @@
       </c>
       <c r="H186" t="str">
         <f t="shared" si="2"/>
-        <v>{ new CountryInfo("AF", "RW", 646, "Rwanda", "Kigali", "en,fr,rw", "250") },</v>
+        <v>{ new CountryInfo("AF", "RW","RWA", 646, "Rwanda", "Kigali", "en,fr,rw", "250") },</v>
       </c>
       <c r="S186" t="s">
         <v>1138</v>
@@ -25531,7 +25531,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="187" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>160</v>
       </c>
@@ -25555,7 +25555,7 @@
       </c>
       <c r="H187" t="str">
         <f t="shared" si="2"/>
-        <v>{ new CountryInfo("NA", "BL", 652, "Saint Barthélemy", "Gustavia", "fr", "590") },</v>
+        <v>{ new CountryInfo("NA", "BL","BLM", 652, "Saint Barthélemy", "Gustavia", "fr", "590") },</v>
       </c>
       <c r="S187" t="s">
         <v>160</v>
@@ -25589,7 +25589,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="188" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>1178</v>
       </c>
@@ -25613,7 +25613,7 @@
       </c>
       <c r="H188" t="str">
         <f t="shared" si="2"/>
-        <v>{ new CountryInfo("AF", "SH", 654, "Saint Helena", "Jamestown", "en", "290") },</v>
+        <v>{ new CountryInfo("AF", "SH","SHN", 654, "Saint Helena", "Jamestown", "en", "290") },</v>
       </c>
       <c r="S188" t="s">
         <v>1178</v>
@@ -25647,7 +25647,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="189" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>716</v>
       </c>
@@ -25671,7 +25671,7 @@
       </c>
       <c r="H189" t="str">
         <f t="shared" si="2"/>
-        <v>{ new CountryInfo("NA", "KN", 659, "Saint Kitts and Nevis", "Basseterre", "en", "1-869") },</v>
+        <v>{ new CountryInfo("NA", "KN","KNA", 659, "Saint Kitts and Nevis", "Basseterre", "en", "1-869") },</v>
       </c>
       <c r="S189" t="s">
         <v>716</v>
@@ -25705,7 +25705,7 @@
         <v>1-869</v>
       </c>
     </row>
-    <row r="190" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>766</v>
       </c>
@@ -25729,7 +25729,7 @@
       </c>
       <c r="H190" t="str">
         <f t="shared" si="2"/>
-        <v>{ new CountryInfo("NA", "LC", 662, "Saint Lucia", "Castries", "en", "1-758") },</v>
+        <v>{ new CountryInfo("NA", "LC","LCA", 662, "Saint Lucia", "Castries", "en", "1-758") },</v>
       </c>
       <c r="S190" t="s">
         <v>766</v>
@@ -25763,7 +25763,7 @@
         <v>1-758</v>
       </c>
     </row>
-    <row r="191" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>844</v>
       </c>
@@ -25787,7 +25787,7 @@
       </c>
       <c r="H191" t="str">
         <f t="shared" si="2"/>
-        <v>{ new CountryInfo("NA", "MF", 663, "Saint Martin", "Marigot", "fr", "590") },</v>
+        <v>{ new CountryInfo("NA", "MF","MAF", 663, "Saint Martin", "Marigot", "fr", "590") },</v>
       </c>
       <c r="S191" t="s">
         <v>844</v>
@@ -25821,7 +25821,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="192" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>1024</v>
       </c>
@@ -25845,7 +25845,7 @@
       </c>
       <c r="H192" t="str">
         <f t="shared" si="2"/>
-        <v>{ new CountryInfo("NA", "PM", 666, "Saint Pierre and Miquelon", "Saint-Pierre", "fr", "508") },</v>
+        <v>{ new CountryInfo("NA", "PM","SPM", 666, "Saint Pierre and Miquelon", "Saint-Pierre", "fr", "508") },</v>
       </c>
       <c r="S192" t="s">
         <v>1024</v>
@@ -25879,7 +25879,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="193" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>1397</v>
       </c>
@@ -25903,7 +25903,7 @@
       </c>
       <c r="H193" t="str">
         <f t="shared" si="2"/>
-        <v>{ new CountryInfo("NA", "VC", 670, "Saint Vincent and the Grenadines", "Kingstown", "en", "1-784") },</v>
+        <v>{ new CountryInfo("NA", "VC","VCT", 670, "Saint Vincent and the Grenadines", "Kingstown", "en", "1-784") },</v>
       </c>
       <c r="S193" t="s">
         <v>1397</v>
@@ -25937,7 +25937,7 @@
         <v>1-784</v>
       </c>
     </row>
-    <row r="194" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>1437</v>
       </c>
@@ -25960,8 +25960,8 @@
         <v>1485</v>
       </c>
       <c r="H194" t="str">
-        <f t="shared" ref="H194:H252" si="3">_xlfn.CONCAT("{ new CountryInfo(""",F194,""", """,A194,""", ",C194,", """,D194,""", """,E194,""", """,G194,""", """,AB194,""") },")</f>
-        <v>{ new CountryInfo("OC", "WS", 882, "Samoa", "Apia", "en", "685") },</v>
+        <f t="shared" ref="H194:H252" si="3">_xlfn.CONCAT("{ new CountryInfo(""",F194,""", """,A194,""",""",B194,""", ",C194,", """,D194,""", """,E194,""", """,G194,""", """,AB194,""") },")</f>
+        <v>{ new CountryInfo("OC", "WS","WSM", 882, "Samoa", "Apia", "en", "685") },</v>
       </c>
       <c r="S194" t="s">
         <v>1437</v>
@@ -25995,7 +25995,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="195" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>1208</v>
       </c>
@@ -26019,7 +26019,7 @@
       </c>
       <c r="H195" t="str">
         <f t="shared" si="3"/>
-        <v>{ new CountryInfo("EU", "SM", 674, "San Marino", "San Marino", "it", "378") },</v>
+        <v>{ new CountryInfo("EU", "SM","SMR", 674, "San Marino", "San Marino", "it", "378") },</v>
       </c>
       <c r="S195" t="s">
         <v>1208</v>
@@ -26053,7 +26053,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="196" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>768</v>
       </c>
@@ -26077,7 +26077,7 @@
       </c>
       <c r="H196" t="str">
         <f t="shared" si="3"/>
-        <v>{ new CountryInfo("AF", "ST", 678, "São Tomé and Príncipe", "Sao Tome", "pt", "239") },</v>
+        <v>{ new CountryInfo("AF", "ST","STP", 678, "São Tomé and Príncipe", "Sao Tome", "pt", "239") },</v>
       </c>
       <c r="S196" t="s">
         <v>768</v>
@@ -26111,7 +26111,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="197" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>67</v>
       </c>
@@ -26135,7 +26135,7 @@
       </c>
       <c r="H197" t="str">
         <f t="shared" si="3"/>
-        <v>{ new CountryInfo("AS", "SA", 682, "Saudi Arabia", "Riyadh", "ar", "966") },</v>
+        <v>{ new CountryInfo("AS", "SA","SAU", 682, "Saudi Arabia", "Riyadh", "ar", "966") },</v>
       </c>
       <c r="S197" t="s">
         <v>67</v>
@@ -26169,7 +26169,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="198" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>1174</v>
       </c>
@@ -26193,7 +26193,7 @@
       </c>
       <c r="H198" t="str">
         <f t="shared" si="3"/>
-        <v>{ new CountryInfo("AF", "SN", 686, "Senegal", "Dakar", "fr,dyo,ff,wo", "221") },</v>
+        <v>{ new CountryInfo("AF", "SN","SEN", 686, "Senegal", "Dakar", "fr,dyo,ff,wo", "221") },</v>
       </c>
       <c r="S198" t="s">
         <v>1174</v>
@@ -26227,7 +26227,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="199" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>1126</v>
       </c>
@@ -26251,7 +26251,7 @@
       </c>
       <c r="H199" t="str">
         <f t="shared" si="3"/>
-        <v>{ new CountryInfo("EU", "RS", 688, "Serbia", "Belgrade", "sr,sr", "381") },</v>
+        <v>{ new CountryInfo("EU", "RS","SRB", 688, "Serbia", "Belgrade", "sr,sr", "381") },</v>
       </c>
       <c r="S199" t="s">
         <v>1126</v>
@@ -26285,7 +26285,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="200" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>299</v>
       </c>
@@ -26309,7 +26309,7 @@
       </c>
       <c r="H200" t="str">
         <f t="shared" si="3"/>
-        <v>{ new CountryInfo("EU", "CS", 891, "Serbia and Montenegro", "Belgrade", "cu,hu,sq,sr", "381") },</v>
+        <v>{ new CountryInfo("EU", "CS","SCG", 891, "Serbia and Montenegro", "Belgrade", "cu,hu,sq,sr", "381") },</v>
       </c>
       <c r="S200" t="s">
         <v>299</v>
@@ -26343,7 +26343,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="201" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>718</v>
       </c>
@@ -26367,7 +26367,7 @@
       </c>
       <c r="H201" t="str">
         <f t="shared" si="3"/>
-        <v>{ new CountryInfo("AF", "SC", 690, "Seychelles", "Victoria", "en,fr", "248") },</v>
+        <v>{ new CountryInfo("AF", "SC","SYC", 690, "Seychelles", "Victoria", "en,fr", "248") },</v>
       </c>
       <c r="S201" t="s">
         <v>718</v>
@@ -26401,7 +26401,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="202" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>1202</v>
       </c>
@@ -26425,7 +26425,7 @@
       </c>
       <c r="H202" t="str">
         <f t="shared" si="3"/>
-        <v>{ new CountryInfo("AF", "SL", 694, "Sierra Leone", "Freetown", "en", "232") },</v>
+        <v>{ new CountryInfo("AF", "SL","SLE", 694, "Sierra Leone", "Freetown", "en", "232") },</v>
       </c>
       <c r="S202" t="s">
         <v>1202</v>
@@ -26459,7 +26459,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="203" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>1172</v>
       </c>
@@ -26483,7 +26483,7 @@
       </c>
       <c r="H203" t="str">
         <f t="shared" si="3"/>
-        <v>{ new CountryInfo("AS", "SG", 702, "Singapore", "Singapore", "en,ms,ta,zh", "65") },</v>
+        <v>{ new CountryInfo("AS", "SG","SGP", 702, "Singapore", "Singapore", "en,ms,ta,zh", "65") },</v>
       </c>
       <c r="S203" t="s">
         <v>1172</v>
@@ -26517,7 +26517,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="204" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>540</v>
       </c>
@@ -26541,7 +26541,7 @@
       </c>
       <c r="H204" t="str">
         <f t="shared" si="3"/>
-        <v>{ new CountryInfo("NA", "SX", 534, "Sint Maarten", "Philipsburg", "en,nl", "1-721") },</v>
+        <v>{ new CountryInfo("NA", "SX","SXM", 534, "Sint Maarten", "Philipsburg", "en,nl", "1-721") },</v>
       </c>
       <c r="S204" t="s">
         <v>540</v>
@@ -26575,7 +26575,7 @@
         <v>1-721</v>
       </c>
     </row>
-    <row r="205" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>1195</v>
       </c>
@@ -26599,7 +26599,7 @@
       </c>
       <c r="H205" t="str">
         <f t="shared" si="3"/>
-        <v>{ new CountryInfo("EU", "SK", 703, "Slovakia", "Bratislava", "sk", "421") },</v>
+        <v>{ new CountryInfo("EU", "SK","SVK", 703, "Slovakia", "Bratislava", "sk", "421") },</v>
       </c>
       <c r="S205" t="s">
         <v>1195</v>
@@ -26633,7 +26633,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="206" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>1183</v>
       </c>
@@ -26657,7 +26657,7 @@
       </c>
       <c r="H206" t="str">
         <f t="shared" si="3"/>
-        <v>{ new CountryInfo("EU", "SI", 705, "Slovenia", "Ljubljana", "en,sl", "386") },</v>
+        <v>{ new CountryInfo("EU", "SI","SVN", 705, "Slovenia", "Ljubljana", "en,sl", "386") },</v>
       </c>
       <c r="S206" t="s">
         <v>1183</v>
@@ -26691,7 +26691,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="207" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>1068</v>
       </c>
@@ -26715,7 +26715,7 @@
       </c>
       <c r="H207" t="str">
         <f t="shared" si="3"/>
-        <v>{ new CountryInfo("OC", "SB", 90, "Solomon Islands", "Honiara", "en", "677") },</v>
+        <v>{ new CountryInfo("OC", "SB","SLB", 90, "Solomon Islands", "Honiara", "en", "677") },</v>
       </c>
       <c r="S207" t="s">
         <v>1068</v>
@@ -26749,7 +26749,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="208" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>1217</v>
       </c>
@@ -26773,7 +26773,7 @@
       </c>
       <c r="H208" t="str">
         <f t="shared" si="3"/>
-        <v>{ new CountryInfo("AF", "SO", 706, "Somalia", "Mogadishu", "ar,so", "252") },</v>
+        <v>{ new CountryInfo("AF", "SO","SOM", 706, "Somalia", "Mogadishu", "ar,so", "252") },</v>
       </c>
       <c r="S208" t="s">
         <v>1217</v>
@@ -26807,7 +26807,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="209" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>1461</v>
       </c>
@@ -26831,7 +26831,7 @@
       </c>
       <c r="H209" t="str">
         <f t="shared" si="3"/>
-        <v>{ new CountryInfo("AF", "ZA", 710, "South Africa", "Pretoria", "af,en,nr,nso,ss,st,tn,ts,ve,xh,zu", "27") },</v>
+        <v>{ new CountryInfo("AF", "ZA","ZAF", 710, "South Africa", "Pretoria", "af,en,nr,nso,ss,st,tn,ts,ve,xh,zu", "27") },</v>
       </c>
       <c r="S209" t="s">
         <v>1461</v>
@@ -26865,7 +26865,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="210" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>538</v>
       </c>
@@ -26889,7 +26889,7 @@
       </c>
       <c r="H210" t="str">
         <f t="shared" si="3"/>
-        <v>{ new CountryInfo("AN", "GS", 239, "South Georgia and the South Sandwich Islands", "Grytviken", "en", "500") },</v>
+        <v>{ new CountryInfo("AN", "GS","SGS", 239, "South Georgia and the South Sandwich Islands", "Grytviken", "en", "500") },</v>
       </c>
       <c r="S210" t="s">
         <v>538</v>
@@ -26923,7 +26923,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="211" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>707</v>
       </c>
@@ -26947,7 +26947,7 @@
       </c>
       <c r="H211" t="str">
         <f t="shared" si="3"/>
-        <v>{ new CountryInfo("AS", "KR", 410, "South Korea", "Seoul", "ko", "82") },</v>
+        <v>{ new CountryInfo("AS", "KR","KOR", 410, "South Korea", "Seoul", "ko", "82") },</v>
       </c>
       <c r="S211" t="s">
         <v>707</v>
@@ -26981,7 +26981,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="212" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>1229</v>
       </c>
@@ -27005,7 +27005,7 @@
       </c>
       <c r="H212" t="str">
         <f t="shared" si="3"/>
-        <v>{ new CountryInfo("AF", "SS", 728, "South Sudan", "Juba", "ar,en,nus", "211") },</v>
+        <v>{ new CountryInfo("AF", "SS","SSD", 728, "South Sudan", "Juba", "ar,en,nus", "211") },</v>
       </c>
       <c r="S212" t="s">
         <v>1229</v>
@@ -27039,7 +27039,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="213" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>411</v>
       </c>
@@ -27063,7 +27063,7 @@
       </c>
       <c r="H213" t="str">
         <f t="shared" si="3"/>
-        <v>{ new CountryInfo("EU", "ES", 724, "Spain", "Madrid", "es,ca,ast,eu,gl", "34") },</v>
+        <v>{ new CountryInfo("EU", "ES","ESP", 724, "Spain", "Madrid", "es,ca,ast,eu,gl", "34") },</v>
       </c>
       <c r="S213" t="s">
         <v>411</v>
@@ -27097,7 +27097,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="214" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>778</v>
       </c>
@@ -27121,7 +27121,7 @@
       </c>
       <c r="H214" t="str">
         <f t="shared" si="3"/>
-        <v>{ new CountryInfo("AS", "LK", 144, "Sri Lanka", "Colombo", "si,ta", "94") },</v>
+        <v>{ new CountryInfo("AS", "LK","LKA", 144, "Sri Lanka", "Colombo", "si,ta", "94") },</v>
       </c>
       <c r="S214" t="s">
         <v>778</v>
@@ -27155,7 +27155,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="215" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>1159</v>
       </c>
@@ -27179,7 +27179,7 @@
       </c>
       <c r="H215" t="str">
         <f t="shared" si="3"/>
-        <v>{ new CountryInfo("AF", "SD", 729, "Sudan", "Khartoum", "ar,en", "249") },</v>
+        <v>{ new CountryInfo("AF", "SD","SDN", 729, "Sudan", "Khartoum", "ar,en", "249") },</v>
       </c>
       <c r="S215" t="s">
         <v>1159</v>
@@ -27213,7 +27213,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="216" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>1223</v>
       </c>
@@ -27237,7 +27237,7 @@
       </c>
       <c r="H216" t="str">
         <f t="shared" si="3"/>
-        <v>{ new CountryInfo("SA", "SR", 740, "Suriname", "Paramaribo", "nl", "597") },</v>
+        <v>{ new CountryInfo("SA", "SR","SUR", 740, "Suriname", "Paramaribo", "nl", "597") },</v>
       </c>
       <c r="S216" t="s">
         <v>1223</v>
@@ -27271,7 +27271,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="217" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>1189</v>
       </c>
@@ -27295,7 +27295,7 @@
       </c>
       <c r="H217" t="str">
         <f t="shared" si="3"/>
-        <v>{ new CountryInfo("EU", "SJ", 744, "Svalbard and Jan Mayen", "Longyearbyen", "nb", "47") },</v>
+        <v>{ new CountryInfo("EU", "SJ","SJM", 744, "Svalbard and Jan Mayen", "Longyearbyen", "nb", "47") },</v>
       </c>
       <c r="S217" t="s">
         <v>1189</v>
@@ -27329,7 +27329,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="218" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>256</v>
       </c>
@@ -27353,7 +27353,7 @@
       </c>
       <c r="H218" t="str">
         <f t="shared" si="3"/>
-        <v>{ new CountryInfo("AF", "SZ", 748, "Swaziland", "Mbabane", "en,ss", "268") },</v>
+        <v>{ new CountryInfo("AF", "SZ","SWZ", 748, "Swaziland", "Mbabane", "en,ss", "268") },</v>
       </c>
       <c r="S218" t="s">
         <v>256</v>
@@ -27387,7 +27387,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="219" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>1155</v>
       </c>
@@ -27411,7 +27411,7 @@
       </c>
       <c r="H219" t="str">
         <f t="shared" si="3"/>
-        <v>{ new CountryInfo("EU", "SE", 752, "Sweden", "Stockholm", "en,se,sma,smj,sv", "46") },</v>
+        <v>{ new CountryInfo("EU", "SE","SWE", 752, "Sweden", "Stockholm", "en,se,sma,smj,sv", "46") },</v>
       </c>
       <c r="S219" t="s">
         <v>1155</v>
@@ -27445,7 +27445,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="220" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>254</v>
       </c>
@@ -27469,7 +27469,7 @@
       </c>
       <c r="H220" t="str">
         <f t="shared" si="3"/>
-        <v>{ new CountryInfo("EU", "CH", 756, "Switzerland", "Bern", "de,en,fr,gsw,it,pt,rm,wae", "41") },</v>
+        <v>{ new CountryInfo("EU", "CH","CHE", 756, "Switzerland", "Bern", "de,en,fr,gsw,it,pt,rm,wae", "41") },</v>
       </c>
       <c r="S220" t="s">
         <v>254</v>
@@ -27503,7 +27503,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="221" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>1250</v>
       </c>
@@ -27527,7 +27527,7 @@
       </c>
       <c r="H221" t="str">
         <f t="shared" si="3"/>
-        <v>{ new CountryInfo("AS", "SY", 760, "Syria", "Damascus", "ar,fr,syr", "963") },</v>
+        <v>{ new CountryInfo("AS", "SY","SYR", 760, "Syria", "Damascus", "ar,fr,syr", "963") },</v>
       </c>
       <c r="S221" t="s">
         <v>1250</v>
@@ -27561,7 +27561,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="222" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>1345</v>
       </c>
@@ -27585,7 +27585,7 @@
       </c>
       <c r="H222" t="str">
         <f t="shared" si="3"/>
-        <v>{ new CountryInfo("AS", "TW", 158, "Taiwan", "Taipei", "zh", "886") },</v>
+        <v>{ new CountryInfo("AS", "TW","TWN", 158, "Taiwan", "Taipei", "zh", "886") },</v>
       </c>
       <c r="S222" t="s">
         <v>1345</v>
@@ -27619,7 +27619,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="223" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>1293</v>
       </c>
@@ -27643,7 +27643,7 @@
       </c>
       <c r="H223" t="str">
         <f t="shared" si="3"/>
-        <v>{ new CountryInfo("AS", "TJ", 762, "Tajikistan", "Dushanbe", "tg", "992") },</v>
+        <v>{ new CountryInfo("AS", "TJ","TJK", 762, "Tajikistan", "Dushanbe", "tg", "992") },</v>
       </c>
       <c r="S223" t="s">
         <v>1293</v>
@@ -27677,7 +27677,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="224" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>1351</v>
       </c>
@@ -27701,7 +27701,7 @@
       </c>
       <c r="H224" t="str">
         <f t="shared" si="3"/>
-        <v>{ new CountryInfo("AF", "TZ", 834, "Tanzania", "Dodoma", "asa,bez,en,jmc,kde,ksb,lag,mas,rof,rwk,sbp,sw,vun", "255") },</v>
+        <v>{ new CountryInfo("AF", "TZ","TZA", 834, "Tanzania", "Dodoma", "asa,bez,en,jmc,kde,ksb,lag,mas,rof,rwk,sbp,sw,vun", "255") },</v>
       </c>
       <c r="S224" t="s">
         <v>1351</v>
@@ -27735,7 +27735,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="225" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>1287</v>
       </c>
@@ -27759,7 +27759,7 @@
       </c>
       <c r="H225" t="str">
         <f t="shared" si="3"/>
-        <v>{ new CountryInfo("AS", "TH", 764, "Thailand", "Bangkok", "th", "66") },</v>
+        <v>{ new CountryInfo("AS", "TH","THA", 764, "Thailand", "Bangkok", "th", "66") },</v>
       </c>
       <c r="S225" t="s">
         <v>1287</v>
@@ -27793,7 +27793,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="226" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>1280</v>
       </c>
@@ -27817,7 +27817,7 @@
       </c>
       <c r="H226" t="str">
         <f t="shared" si="3"/>
-        <v>{ new CountryInfo("AF", "TG", 768, "Togo", "Lome", "ee,fr", "228") },</v>
+        <v>{ new CountryInfo("AF", "TG","TGO", 768, "Togo", "Lome", "ee,fr", "228") },</v>
       </c>
       <c r="S226" t="s">
         <v>1280</v>
@@ -27851,7 +27851,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="227" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>1264</v>
       </c>
@@ -27872,7 +27872,7 @@
       </c>
       <c r="H227" t="str">
         <f t="shared" si="3"/>
-        <v>{ new CountryInfo("OC", "TK", 772, "Tokelau", "", "en", "690") },</v>
+        <v>{ new CountryInfo("OC", "TK","TKL", 772, "Tokelau", "", "en", "690") },</v>
       </c>
       <c r="S227" t="s">
         <v>1264</v>
@@ -27903,7 +27903,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="228" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>1282</v>
       </c>
@@ -27927,7 +27927,7 @@
       </c>
       <c r="H228" t="str">
         <f t="shared" si="3"/>
-        <v>{ new CountryInfo("OC", "TO", 776, "Tonga", "Nuku'alofa", "en,to", "676") },</v>
+        <v>{ new CountryInfo("OC", "TO","TON", 776, "Tonga", "Nuku'alofa", "en,to", "676") },</v>
       </c>
       <c r="S228" t="s">
         <v>1282</v>
@@ -27961,7 +27961,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="229" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>1305</v>
       </c>
@@ -27985,7 +27985,7 @@
       </c>
       <c r="H229" t="str">
         <f t="shared" si="3"/>
-        <v>{ new CountryInfo("NA", "TT", 780, "Trinidad and Tobago", "Port of Spain", "en", "1-868") },</v>
+        <v>{ new CountryInfo("NA", "TT","TTO", 780, "Trinidad and Tobago", "Port of Spain", "en", "1-868") },</v>
       </c>
       <c r="S229" t="s">
         <v>1305</v>
@@ -28019,7 +28019,7 @@
         <v>1-868</v>
       </c>
     </row>
-    <row r="230" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>1317</v>
       </c>
@@ -28043,7 +28043,7 @@
       </c>
       <c r="H230" t="str">
         <f t="shared" si="3"/>
-        <v>{ new CountryInfo("AF", "TN", 788, "Tunisia", "Tunis", "ar,fr", "216") },</v>
+        <v>{ new CountryInfo("AF", "TN","TUN", 788, "Tunisia", "Tunis", "ar,fr", "216") },</v>
       </c>
       <c r="S230" t="s">
         <v>1317</v>
@@ -28077,7 +28077,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="231" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>1328</v>
       </c>
@@ -28101,7 +28101,7 @@
       </c>
       <c r="H231" t="str">
         <f t="shared" si="3"/>
-        <v>{ new CountryInfo("AS", "TR", 792, "Turkey", "Ankara", "tr", "90") },</v>
+        <v>{ new CountryInfo("AS", "TR","TUR", 792, "Turkey", "Ankara", "tr", "90") },</v>
       </c>
       <c r="S231" t="s">
         <v>1328</v>
@@ -28135,7 +28135,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="232" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>1310</v>
       </c>
@@ -28159,7 +28159,7 @@
       </c>
       <c r="H232" t="str">
         <f t="shared" si="3"/>
-        <v>{ new CountryInfo("AS", "TM", 795, "Turkmenistan", "Ashgabat", "tk", "993") },</v>
+        <v>{ new CountryInfo("AS", "TM","TKM", 795, "Turkmenistan", "Ashgabat", "tk", "993") },</v>
       </c>
       <c r="S232" t="s">
         <v>1310</v>
@@ -28193,7 +28193,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="233" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>1262</v>
       </c>
@@ -28217,7 +28217,7 @@
       </c>
       <c r="H233" t="str">
         <f t="shared" si="3"/>
-        <v>{ new CountryInfo("NA", "TC", 796, "Turks and Caicos Islands", "Cockburn Town", "en", "1-649") },</v>
+        <v>{ new CountryInfo("NA", "TC","TCA", 796, "Turks and Caicos Islands", "Cockburn Town", "en", "1-649") },</v>
       </c>
       <c r="S233" t="s">
         <v>1262</v>
@@ -28251,7 +28251,7 @@
         <v>1-649</v>
       </c>
     </row>
-    <row r="234" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>1340</v>
       </c>
@@ -28275,7 +28275,7 @@
       </c>
       <c r="H234" t="str">
         <f t="shared" si="3"/>
-        <v>{ new CountryInfo("OC", "TV", 798, "Tuvalu", "Funafuti", "en", "688") },</v>
+        <v>{ new CountryInfo("OC", "TV","TUV", 798, "Tuvalu", "Funafuti", "en", "688") },</v>
       </c>
       <c r="S234" t="s">
         <v>1340</v>
@@ -28309,7 +28309,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="235" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>1370</v>
       </c>
@@ -28330,7 +28330,7 @@
       </c>
       <c r="H235" t="str">
         <f t="shared" si="3"/>
-        <v>{ new CountryInfo("OC", "UM", 581, "U.S. Minor Outlying Islands", "", "en", "246") },</v>
+        <v>{ new CountryInfo("OC", "UM","UMI", 581, "U.S. Minor Outlying Islands", "", "en", "246") },</v>
       </c>
       <c r="S235" t="s">
         <v>1370</v>
@@ -28358,7 +28358,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="236" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>1410</v>
       </c>
@@ -28382,7 +28382,7 @@
       </c>
       <c r="H236" t="str">
         <f t="shared" si="3"/>
-        <v>{ new CountryInfo("NA", "VI", 850, "U.S. Virgin Islands", "Charlotte Amalie", "en", "1-340") },</v>
+        <v>{ new CountryInfo("NA", "VI","VIR", 850, "U.S. Virgin Islands", "Charlotte Amalie", "en", "1-340") },</v>
       </c>
       <c r="S236" t="s">
         <v>1410</v>
@@ -28416,7 +28416,7 @@
         <v>1-340</v>
       </c>
     </row>
-    <row r="237" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>1364</v>
       </c>
@@ -28440,7 +28440,7 @@
       </c>
       <c r="H237" t="str">
         <f t="shared" si="3"/>
-        <v>{ new CountryInfo("AF", "UG", 800, "Uganda", "Kampala", "cgg,en,lg,nyn,sw,teo,xog", "256") },</v>
+        <v>{ new CountryInfo("AF", "UG","UGA", 800, "Uganda", "Kampala", "cgg,en,lg,nyn,sw,teo,xog", "256") },</v>
       </c>
       <c r="S237" t="s">
         <v>1364</v>
@@ -28474,7 +28474,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="238" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>1357</v>
       </c>
@@ -28498,7 +28498,7 @@
       </c>
       <c r="H238" t="str">
         <f t="shared" si="3"/>
-        <v>{ new CountryInfo("EU", "UA", 804, "Ukraine", "Kiev", "uk,ru", "380") },</v>
+        <v>{ new CountryInfo("EU", "UA","UKR", 804, "Ukraine", "Kiev", "uk,ru", "380") },</v>
       </c>
       <c r="S238" t="s">
         <v>1357</v>
@@ -28532,7 +28532,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="239" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>7</v>
       </c>
@@ -28556,7 +28556,7 @@
       </c>
       <c r="H239" t="str">
         <f t="shared" si="3"/>
-        <v>{ new CountryInfo("AS", "AE", 784, "United Arab Emirates", "Abu Dhabi", "ar", "971") },</v>
+        <v>{ new CountryInfo("AS", "AE","ARE", 784, "United Arab Emirates", "Abu Dhabi", "ar", "971") },</v>
       </c>
       <c r="S239" t="s">
         <v>7</v>
@@ -28590,7 +28590,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="240" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>458</v>
       </c>
@@ -28614,7 +28614,7 @@
       </c>
       <c r="H240" t="str">
         <f t="shared" si="3"/>
-        <v>{ new CountryInfo("EU", "GB", 826, "United Kingdom", "London", "en,cy,gd,kw", "44") },</v>
+        <v>{ new CountryInfo("EU", "GB","GBR", 826, "United Kingdom", "London", "en,cy,gd,kw", "44") },</v>
       </c>
       <c r="S240" t="s">
         <v>458</v>
@@ -28648,7 +28648,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="241" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>1374</v>
       </c>
@@ -28672,7 +28672,7 @@
       </c>
       <c r="H241" t="str">
         <f t="shared" si="3"/>
-        <v>{ new CountryInfo("NA", "US", 840, "United States", "Washington", "en,es,chr,haw,lkt", "1") },</v>
+        <v>{ new CountryInfo("NA", "US","USA", 840, "United States", "Washington", "en,es,chr,haw,lkt", "1") },</v>
       </c>
       <c r="S241" t="s">
         <v>1374</v>
@@ -28706,7 +28706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>1380</v>
       </c>
@@ -28730,7 +28730,7 @@
       </c>
       <c r="H242" t="str">
         <f t="shared" si="3"/>
-        <v>{ new CountryInfo("SA", "UY", 858, "Uruguay", "Montevideo", "es", "598") },</v>
+        <v>{ new CountryInfo("SA", "UY","URY", 858, "Uruguay", "Montevideo", "es", "598") },</v>
       </c>
       <c r="S242" t="s">
         <v>1380</v>
@@ -28764,7 +28764,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="243" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>1386</v>
       </c>
@@ -28788,7 +28788,7 @@
       </c>
       <c r="H243" t="str">
         <f t="shared" si="3"/>
-        <v>{ new CountryInfo("AS", "UZ", 860, "Uzbekistan", "Tashkent", "uz,uz", "998") },</v>
+        <v>{ new CountryInfo("AS", "UZ","UZB", 860, "Uzbekistan", "Tashkent", "uz,uz", "998") },</v>
       </c>
       <c r="S243" t="s">
         <v>1386</v>
@@ -28822,7 +28822,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="244" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>1426</v>
       </c>
@@ -28846,7 +28846,7 @@
       </c>
       <c r="H244" t="str">
         <f t="shared" si="3"/>
-        <v>{ new CountryInfo("OC", "VU", 548, "Vanuatu", "Port Vila", "en,fr", "678") },</v>
+        <v>{ new CountryInfo("OC", "VU","VUT", 548, "Vanuatu", "Port Vila", "en,fr", "678") },</v>
       </c>
       <c r="S244" t="s">
         <v>1426</v>
@@ -28880,7 +28880,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="245" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>1392</v>
       </c>
@@ -28904,7 +28904,7 @@
       </c>
       <c r="H245" t="str">
         <f t="shared" si="3"/>
-        <v>{ new CountryInfo("EU", "VA", 336, "Vatican City", "Vatican City", "it,fr,la", "379") },</v>
+        <v>{ new CountryInfo("EU", "VA","VAT", 336, "Vatican City", "Vatican City", "it,fr,la", "379") },</v>
       </c>
       <c r="S245" t="s">
         <v>1392</v>
@@ -28938,7 +28938,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="246" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>1402</v>
       </c>
@@ -28962,7 +28962,7 @@
       </c>
       <c r="H246" t="str">
         <f t="shared" si="3"/>
-        <v>{ new CountryInfo("SA", "VE", 862, "Venezuela", "Caracas", "es", "58") },</v>
+        <v>{ new CountryInfo("SA", "VE","VEN", 862, "Venezuela", "Caracas", "es", "58") },</v>
       </c>
       <c r="S246" t="s">
         <v>1402</v>
@@ -28996,7 +28996,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="247" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>1419</v>
       </c>
@@ -29020,7 +29020,7 @@
       </c>
       <c r="H247" t="str">
         <f t="shared" si="3"/>
-        <v>{ new CountryInfo("AS", "VN", 704, "Vietnam", "Hanoi", "vi", "84") },</v>
+        <v>{ new CountryInfo("AS", "VN","VNM", 704, "Vietnam", "Hanoi", "vi", "84") },</v>
       </c>
       <c r="S247" t="s">
         <v>1419</v>
@@ -29054,7 +29054,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="248" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>1432</v>
       </c>
@@ -29078,7 +29078,7 @@
       </c>
       <c r="H248" t="str">
         <f t="shared" si="3"/>
-        <v>{ new CountryInfo("OC", "WF", 876, "Wallis and Futuna", "Mata Utu", "fr", "681") },</v>
+        <v>{ new CountryInfo("OC", "WF","WLF", 876, "Wallis and Futuna", "Mata Utu", "fr", "681") },</v>
       </c>
       <c r="S248" t="s">
         <v>1432</v>
@@ -29112,7 +29112,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="249" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>399</v>
       </c>
@@ -29136,7 +29136,7 @@
       </c>
       <c r="H249" t="str">
         <f t="shared" si="3"/>
-        <v>{ new CountryInfo("AF", "EH", 732, "Western Sahara", "El-Aaiun", "ar,mey", "212") },</v>
+        <v>{ new CountryInfo("AF", "EH","ESH", 732, "Western Sahara", "El-Aaiun", "ar,mey", "212") },</v>
       </c>
       <c r="S249" t="s">
         <v>399</v>
@@ -29170,7 +29170,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="250" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>1449</v>
       </c>
@@ -29194,7 +29194,7 @@
       </c>
       <c r="H250" t="str">
         <f t="shared" si="3"/>
-        <v>{ new CountryInfo("AS", "YE", 887, "Yemen", "Sanaa", "ar", "967") },</v>
+        <v>{ new CountryInfo("AS", "YE","YEM", 887, "Yemen", "Sanaa", "ar", "967") },</v>
       </c>
       <c r="S250" t="s">
         <v>1449</v>
@@ -29228,7 +29228,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="251" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>1468</v>
       </c>
@@ -29252,7 +29252,7 @@
       </c>
       <c r="H251" t="str">
         <f t="shared" si="3"/>
-        <v>{ new CountryInfo("AF", "ZM", 894, "Zambia", "Lusaka", "bem,en", "260") },</v>
+        <v>{ new CountryInfo("AF", "ZM","ZMB", 894, "Zambia", "Lusaka", "bem,en", "260") },</v>
       </c>
       <c r="S251" t="s">
         <v>1468</v>
@@ -29286,7 +29286,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="252" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>1474</v>
       </c>
@@ -29310,7 +29310,7 @@
       </c>
       <c r="H252" t="str">
         <f t="shared" si="3"/>
-        <v>{ new CountryInfo("AF", "ZW", 716, "Zimbabwe", "Harare", "en,nd,sn", "263") },</v>
+        <v>{ new CountryInfo("AF", "ZW","ZWE", 716, "Zimbabwe", "Harare", "en,nd,sn", "263") },</v>
       </c>
       <c r="S252" t="s">
         <v>1474</v>
@@ -29614,18 +29614,18 @@
       <selection activeCell="E254" sqref="E254"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="11.3984375" customWidth="1"/>
-    <col min="4" max="4" width="13.3984375" customWidth="1"/>
-    <col min="5" max="5" width="11.19921875" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2132</v>
       </c>
@@ -29651,7 +29651,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f t="shared" ref="A2:A65" si="0">RIGHT(E2, 3)</f>
         <v>AFG</v>
@@ -29679,7 +29679,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f t="shared" si="0"/>
         <v>ALB</v>
@@ -29707,7 +29707,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
         <v>DZA</v>
@@ -29735,7 +29735,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>ASM</v>
@@ -29763,7 +29763,7 @@
         <v>1645</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>AND</v>
@@ -29791,7 +29791,7 @@
         <v>1647</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>AGO</v>
@@ -29819,7 +29819,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>AIA</v>
@@ -29847,7 +29847,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>ATA</v>
@@ -29872,7 +29872,7 @@
         <v>14000000</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>ATG</v>
@@ -29900,7 +29900,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>ARG</v>
@@ -29928,7 +29928,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>ARM</v>
@@ -29956,7 +29956,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>ABW</v>
@@ -29984,7 +29984,7 @@
         <v>1662</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>AUS</v>
@@ -30012,7 +30012,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>AUT</v>
@@ -30040,7 +30040,7 @@
         <v>1666</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>AZE</v>
@@ -30068,7 +30068,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>BHS</v>
@@ -30096,7 +30096,7 @@
         <v>1671</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>BHR</v>
@@ -30124,7 +30124,7 @@
         <v>1673</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>BGD</v>
@@ -30152,7 +30152,7 @@
         <v>1675</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>BRB</v>
@@ -30180,7 +30180,7 @@
         <v>1678</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>BLR</v>
@@ -30208,7 +30208,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>BEL</v>
@@ -30236,7 +30236,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>BLZ</v>
@@ -30264,7 +30264,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>BEN</v>
@@ -30292,7 +30292,7 @@
         <v>1686</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>BMU</v>
@@ -30320,7 +30320,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>BTN</v>
@@ -30348,7 +30348,7 @@
         <v>1691</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>BOL</v>
@@ -30376,7 +30376,7 @@
         <v>1693</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>BIH</v>
@@ -30404,7 +30404,7 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
         <v>BWA</v>
@@ -30432,7 +30432,7 @@
         <v>1697</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
         <v>BRA</v>
@@ -30460,7 +30460,7 @@
         <v>1699</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
         <v>IOT</v>
@@ -30485,7 +30485,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
         <v>VGB</v>
@@ -30513,7 +30513,7 @@
         <v>1703</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
         <f t="shared" si="0"/>
         <v>BRN</v>
@@ -30541,7 +30541,7 @@
         <v>1705</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
         <f t="shared" si="0"/>
         <v>BGR</v>
@@ -30569,7 +30569,7 @@
         <v>1707</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
         <f t="shared" si="0"/>
         <v>BFA</v>
@@ -30597,7 +30597,7 @@
         <v>1709</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
         <f t="shared" si="0"/>
         <v>BDI</v>
@@ -30625,7 +30625,7 @@
         <v>1711</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
         <f t="shared" si="0"/>
         <v>KHM</v>
@@ -30653,7 +30653,7 @@
         <v>1713</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
         <f t="shared" si="0"/>
         <v>CMR</v>
@@ -30681,7 +30681,7 @@
         <v>1715</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
         <f t="shared" si="0"/>
         <v>CAN</v>
@@ -30709,7 +30709,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
         <f t="shared" si="0"/>
         <v>CPV</v>
@@ -30737,7 +30737,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
         <f t="shared" si="0"/>
         <v>CYM</v>
@@ -30765,7 +30765,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
         <f t="shared" si="0"/>
         <v>CAF</v>
@@ -30793,7 +30793,7 @@
         <v>1724</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
         <f t="shared" si="0"/>
         <v>TCD</v>
@@ -30821,7 +30821,7 @@
         <v>1726</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
         <f t="shared" si="0"/>
         <v>CHL</v>
@@ -30849,7 +30849,7 @@
         <v>1728</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
         <f t="shared" si="0"/>
         <v>CHN</v>
@@ -30877,7 +30877,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
         <f t="shared" si="0"/>
         <v>CXR</v>
@@ -30902,7 +30902,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
         <f t="shared" si="0"/>
         <v>CCK</v>
@@ -30927,7 +30927,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
         <f t="shared" si="0"/>
         <v>COL</v>
@@ -30955,7 +30955,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
         <f t="shared" si="0"/>
         <v>COM</v>
@@ -30983,7 +30983,7 @@
         <v>1737</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
         <f t="shared" si="0"/>
         <v>COK</v>
@@ -31011,7 +31011,7 @@
         <v>1739</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
         <f t="shared" si="0"/>
         <v>CRI</v>
@@ -31039,7 +31039,7 @@
         <v>1741</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
         <f t="shared" si="0"/>
         <v>HRV</v>
@@ -31067,7 +31067,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
         <f t="shared" si="0"/>
         <v>CUB</v>
@@ -31095,7 +31095,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
         <f t="shared" si="0"/>
         <v>CUW</v>
@@ -31123,7 +31123,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="str">
         <f t="shared" si="0"/>
         <v>CYP</v>
@@ -31151,7 +31151,7 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="str">
         <f t="shared" si="0"/>
         <v>CZE</v>
@@ -31179,7 +31179,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="str">
         <f t="shared" si="0"/>
         <v>COD</v>
@@ -31207,7 +31207,7 @@
         <v>1753</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="str">
         <f t="shared" si="0"/>
         <v>DNK</v>
@@ -31235,7 +31235,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="str">
         <f t="shared" si="0"/>
         <v>DJI</v>
@@ -31263,7 +31263,7 @@
         <v>1757</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="str">
         <f t="shared" si="0"/>
         <v>DMA</v>
@@ -31291,7 +31291,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="str">
         <f t="shared" si="0"/>
         <v>DOM</v>
@@ -31319,7 +31319,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="str">
         <f t="shared" si="0"/>
         <v>TLS</v>
@@ -31347,7 +31347,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="str">
         <f t="shared" si="0"/>
         <v>ECU</v>
@@ -31375,7 +31375,7 @@
         <v>1767</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="str">
         <f t="shared" si="0"/>
         <v>EGY</v>
@@ -31403,7 +31403,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="str">
         <f t="shared" si="0"/>
         <v>SLV</v>
@@ -31431,7 +31431,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="str">
         <f t="shared" ref="A66:A129" si="2">RIGHT(E66, 3)</f>
         <v>GNQ</v>
@@ -31459,7 +31459,7 @@
         <v>1773</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="str">
         <f t="shared" si="2"/>
         <v>ERI</v>
@@ -31487,7 +31487,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="str">
         <f t="shared" si="2"/>
         <v>EST</v>
@@ -31515,7 +31515,7 @@
         <v>1777</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="str">
         <f t="shared" si="2"/>
         <v>ETH</v>
@@ -31543,7 +31543,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="str">
         <f t="shared" si="2"/>
         <v>FLK</v>
@@ -31571,7 +31571,7 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="str">
         <f t="shared" si="2"/>
         <v>FRO</v>
@@ -31599,7 +31599,7 @@
         <v>1783</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="str">
         <f t="shared" si="2"/>
         <v>FJI</v>
@@ -31627,7 +31627,7 @@
         <v>1785</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="str">
         <f t="shared" si="2"/>
         <v>FIN</v>
@@ -31655,7 +31655,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="str">
         <f t="shared" si="2"/>
         <v>FRA</v>
@@ -31683,7 +31683,7 @@
         <v>1789</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="str">
         <f t="shared" si="2"/>
         <v>PYF</v>
@@ -31711,7 +31711,7 @@
         <v>1791</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="str">
         <f t="shared" si="2"/>
         <v>GAB</v>
@@ -31739,7 +31739,7 @@
         <v>1793</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="str">
         <f t="shared" si="2"/>
         <v>GMB</v>
@@ -31767,7 +31767,7 @@
         <v>1795</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="str">
         <f t="shared" si="2"/>
         <v>GEO</v>
@@ -31795,7 +31795,7 @@
         <v>1797</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="str">
         <f t="shared" si="2"/>
         <v>DEU</v>
@@ -31823,7 +31823,7 @@
         <v>1799</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="str">
         <f t="shared" si="2"/>
         <v>GHA</v>
@@ -31851,7 +31851,7 @@
         <v>1801</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="str">
         <f t="shared" si="2"/>
         <v>GIB</v>
@@ -31879,7 +31879,7 @@
         <v>1803</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="str">
         <f t="shared" si="2"/>
         <v>GRC</v>
@@ -31907,7 +31907,7 @@
         <v>1805</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="str">
         <f t="shared" si="2"/>
         <v>GRL</v>
@@ -31935,7 +31935,7 @@
         <v>1807</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="str">
         <f t="shared" si="2"/>
         <v>GRD</v>
@@ -31963,7 +31963,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="str">
         <f t="shared" si="2"/>
         <v>GUM</v>
@@ -31991,7 +31991,7 @@
         <v>1813</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="str">
         <f t="shared" si="2"/>
         <v>GTM</v>
@@ -32019,7 +32019,7 @@
         <v>1815</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="str">
         <f t="shared" si="2"/>
         <v>GGY</v>
@@ -32047,7 +32047,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="str">
         <f t="shared" si="2"/>
         <v>GIN</v>
@@ -32075,7 +32075,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="str">
         <f t="shared" si="2"/>
         <v>GNB</v>
@@ -32103,7 +32103,7 @@
         <v>1822</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="str">
         <f t="shared" si="2"/>
         <v>GUY</v>
@@ -32131,7 +32131,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="str">
         <f t="shared" si="2"/>
         <v>HTI</v>
@@ -32159,7 +32159,7 @@
         <v>1826</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="str">
         <f t="shared" si="2"/>
         <v>HND</v>
@@ -32187,7 +32187,7 @@
         <v>1828</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="str">
         <f t="shared" si="2"/>
         <v>HKG</v>
@@ -32215,7 +32215,7 @@
         <v>1830</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="str">
         <f t="shared" si="2"/>
         <v>HUN</v>
@@ -32243,7 +32243,7 @@
         <v>1832</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="str">
         <f t="shared" si="2"/>
         <v>ISL</v>
@@ -32271,7 +32271,7 @@
         <v>1834</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="str">
         <f t="shared" si="2"/>
         <v>IND</v>
@@ -32299,7 +32299,7 @@
         <v>1836</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="str">
         <f t="shared" si="2"/>
         <v>IDN</v>
@@ -32327,7 +32327,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="str">
         <f t="shared" si="2"/>
         <v>IRN</v>
@@ -32355,7 +32355,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="str">
         <f t="shared" si="2"/>
         <v>IRQ</v>
@@ -32383,7 +32383,7 @@
         <v>1842</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="str">
         <f t="shared" si="2"/>
         <v>IRL</v>
@@ -32411,7 +32411,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="str">
         <f t="shared" si="2"/>
         <v>IMN</v>
@@ -32439,7 +32439,7 @@
         <v>1847</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="str">
         <f t="shared" si="2"/>
         <v>ISR</v>
@@ -32467,7 +32467,7 @@
         <v>1849</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="str">
         <f t="shared" si="2"/>
         <v>ITA</v>
@@ -32495,7 +32495,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="str">
         <f t="shared" si="2"/>
         <v>CIV</v>
@@ -32523,7 +32523,7 @@
         <v>1853</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="str">
         <f t="shared" si="2"/>
         <v>JAM</v>
@@ -32551,7 +32551,7 @@
         <v>1856</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="str">
         <f t="shared" si="2"/>
         <v>JPN</v>
@@ -32579,7 +32579,7 @@
         <v>1858</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="str">
         <f t="shared" si="2"/>
         <v>JEY</v>
@@ -32607,7 +32607,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="str">
         <f t="shared" si="2"/>
         <v>JOR</v>
@@ -32635,7 +32635,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="str">
         <f t="shared" si="2"/>
         <v>KAZ</v>
@@ -32663,7 +32663,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="str">
         <f t="shared" si="2"/>
         <v>KEN</v>
@@ -32691,7 +32691,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="str">
         <f t="shared" si="2"/>
         <v>KIR</v>
@@ -32719,7 +32719,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="str">
         <f t="shared" si="2"/>
         <v>XKX</v>
@@ -32747,7 +32747,7 @@
         <v>1871</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="str">
         <f t="shared" si="2"/>
         <v>KWT</v>
@@ -32775,7 +32775,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="str">
         <f t="shared" si="2"/>
         <v>KGZ</v>
@@ -32803,7 +32803,7 @@
         <v>1875</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="str">
         <f t="shared" si="2"/>
         <v>LAO</v>
@@ -32831,7 +32831,7 @@
         <v>1877</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="str">
         <f t="shared" si="2"/>
         <v>LVA</v>
@@ -32859,7 +32859,7 @@
         <v>1879</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="str">
         <f t="shared" si="2"/>
         <v>LBN</v>
@@ -32887,7 +32887,7 @@
         <v>1881</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="str">
         <f t="shared" si="2"/>
         <v>LSO</v>
@@ -32915,7 +32915,7 @@
         <v>1883</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="str">
         <f t="shared" si="2"/>
         <v>LBR</v>
@@ -32943,7 +32943,7 @@
         <v>1885</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="str">
         <f t="shared" si="2"/>
         <v>LBY</v>
@@ -32971,7 +32971,7 @@
         <v>1887</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="str">
         <f t="shared" si="2"/>
         <v>LIE</v>
@@ -32999,7 +32999,7 @@
         <v>1889</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="str">
         <f t="shared" si="2"/>
         <v>LTU</v>
@@ -33027,7 +33027,7 @@
         <v>1891</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" t="str">
         <f t="shared" si="2"/>
         <v>LUX</v>
@@ -33055,7 +33055,7 @@
         <v>1893</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="str">
         <f t="shared" si="2"/>
         <v>MAC</v>
@@ -33083,7 +33083,7 @@
         <v>1896</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="str">
         <f t="shared" si="2"/>
         <v>MKD</v>
@@ -33111,7 +33111,7 @@
         <v>1898</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="str">
         <f t="shared" si="2"/>
         <v>MDG</v>
@@ -33139,7 +33139,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="str">
         <f t="shared" si="2"/>
         <v>MWI</v>
@@ -33167,7 +33167,7 @@
         <v>1902</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="str">
         <f t="shared" si="2"/>
         <v>MYS</v>
@@ -33195,7 +33195,7 @@
         <v>1904</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="str">
         <f t="shared" si="2"/>
         <v>MDV</v>
@@ -33223,7 +33223,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="str">
         <f t="shared" ref="A130:A193" si="4">RIGHT(E130, 3)</f>
         <v>MLI</v>
@@ -33251,7 +33251,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" t="str">
         <f t="shared" si="4"/>
         <v>MLT</v>
@@ -33279,7 +33279,7 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" t="str">
         <f t="shared" si="4"/>
         <v>MHL</v>
@@ -33307,7 +33307,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" t="str">
         <f t="shared" si="4"/>
         <v>MRT</v>
@@ -33335,7 +33335,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" t="str">
         <f t="shared" si="4"/>
         <v>MUS</v>
@@ -33363,7 +33363,7 @@
         <v>1916</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" t="str">
         <f t="shared" si="4"/>
         <v>MYT</v>
@@ -33388,7 +33388,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" t="str">
         <f t="shared" si="4"/>
         <v>MEX</v>
@@ -33416,7 +33416,7 @@
         <v>1919</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" t="str">
         <f t="shared" si="4"/>
         <v>FSM</v>
@@ -33444,7 +33444,7 @@
         <v>1921</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" t="str">
         <f t="shared" si="4"/>
         <v>MDA</v>
@@ -33472,7 +33472,7 @@
         <v>1923</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" t="str">
         <f t="shared" si="4"/>
         <v>MCO</v>
@@ -33500,7 +33500,7 @@
         <v>1925</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" t="str">
         <f t="shared" si="4"/>
         <v>MNG</v>
@@ -33528,7 +33528,7 @@
         <v>1927</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" t="str">
         <f t="shared" si="4"/>
         <v>MNE</v>
@@ -33556,7 +33556,7 @@
         <v>1929</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" t="str">
         <f t="shared" si="4"/>
         <v>MSR</v>
@@ -33581,7 +33581,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" t="str">
         <f t="shared" si="4"/>
         <v>MAR</v>
@@ -33609,7 +33609,7 @@
         <v>1933</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" t="str">
         <f t="shared" si="4"/>
         <v>MOZ</v>
@@ -33637,7 +33637,7 @@
         <v>1935</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" t="str">
         <f t="shared" si="4"/>
         <v>MMR</v>
@@ -33665,7 +33665,7 @@
         <v>1938</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" t="str">
         <f t="shared" si="4"/>
         <v>NAM</v>
@@ -33693,7 +33693,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" t="str">
         <f t="shared" si="4"/>
         <v>NRU</v>
@@ -33718,7 +33718,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" t="str">
         <f t="shared" si="4"/>
         <v>NPL</v>
@@ -33746,7 +33746,7 @@
         <v>1943</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" t="str">
         <f t="shared" si="4"/>
         <v>NLD</v>
@@ -33774,7 +33774,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" t="str">
         <f t="shared" si="4"/>
         <v>ANT</v>
@@ -33799,7 +33799,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" t="str">
         <f t="shared" si="4"/>
         <v>NCL</v>
@@ -33827,7 +33827,7 @@
         <v>1948</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" t="str">
         <f t="shared" si="4"/>
         <v>NZL</v>
@@ -33855,7 +33855,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" t="str">
         <f t="shared" si="4"/>
         <v>NIC</v>
@@ -33883,7 +33883,7 @@
         <v>1952</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" t="str">
         <f t="shared" si="4"/>
         <v>NER</v>
@@ -33911,7 +33911,7 @@
         <v>1954</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" t="str">
         <f t="shared" si="4"/>
         <v>NGA</v>
@@ -33939,7 +33939,7 @@
         <v>1956</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" t="str">
         <f t="shared" si="4"/>
         <v>NIU</v>
@@ -33967,7 +33967,7 @@
         <v>1958</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" t="str">
         <f t="shared" si="4"/>
         <v>PRK</v>
@@ -33995,7 +33995,7 @@
         <v>1960</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" t="str">
         <f t="shared" si="4"/>
         <v>MNP</v>
@@ -34023,7 +34023,7 @@
         <v>1963</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" t="str">
         <f t="shared" si="4"/>
         <v>NOR</v>
@@ -34051,7 +34051,7 @@
         <v>1965</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" t="str">
         <f t="shared" si="4"/>
         <v>OMN</v>
@@ -34079,7 +34079,7 @@
         <v>1967</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" t="str">
         <f t="shared" si="4"/>
         <v>PAK</v>
@@ -34107,7 +34107,7 @@
         <v>1969</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="str">
         <f t="shared" si="4"/>
         <v>PLW</v>
@@ -34135,7 +34135,7 @@
         <v>1971</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" t="str">
         <f t="shared" si="4"/>
         <v>PSE</v>
@@ -34163,7 +34163,7 @@
         <v>1973</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="str">
         <f t="shared" si="4"/>
         <v>PAN</v>
@@ -34191,7 +34191,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="str">
         <f t="shared" si="4"/>
         <v>PNG</v>
@@ -34219,7 +34219,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" t="str">
         <f t="shared" si="4"/>
         <v>PRY</v>
@@ -34247,7 +34247,7 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" t="str">
         <f t="shared" si="4"/>
         <v>PER</v>
@@ -34275,7 +34275,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" t="str">
         <f t="shared" si="4"/>
         <v>PHL</v>
@@ -34303,7 +34303,7 @@
         <v>1983</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" t="str">
         <f t="shared" si="4"/>
         <v>PCN</v>
@@ -34328,7 +34328,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" t="str">
         <f t="shared" si="4"/>
         <v>POL</v>
@@ -34356,7 +34356,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" t="str">
         <f t="shared" si="4"/>
         <v>PRT</v>
@@ -34384,7 +34384,7 @@
         <v>1989</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" t="str">
         <f t="shared" si="4"/>
         <v>PRI</v>
@@ -34412,7 +34412,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" t="str">
         <f t="shared" si="4"/>
         <v>QAT</v>
@@ -34440,7 +34440,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" t="str">
         <f t="shared" si="4"/>
         <v>COG</v>
@@ -34468,7 +34468,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" t="str">
         <f t="shared" si="4"/>
         <v>REU</v>
@@ -34493,7 +34493,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" t="str">
         <f t="shared" si="4"/>
         <v>ROU</v>
@@ -34521,7 +34521,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" t="str">
         <f t="shared" si="4"/>
         <v>RUS</v>
@@ -34549,7 +34549,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" t="str">
         <f t="shared" si="4"/>
         <v>RWA</v>
@@ -34577,7 +34577,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" t="str">
         <f t="shared" si="4"/>
         <v>BLM</v>
@@ -34602,7 +34602,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" t="str">
         <f t="shared" si="4"/>
         <v>SHN</v>
@@ -34627,7 +34627,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" t="str">
         <f t="shared" si="4"/>
         <v>KNA</v>
@@ -34655,7 +34655,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" t="str">
         <f t="shared" si="4"/>
         <v>LCA</v>
@@ -34683,7 +34683,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" t="str">
         <f t="shared" si="4"/>
         <v>MAF</v>
@@ -34711,7 +34711,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" t="str">
         <f t="shared" si="4"/>
         <v>SPM</v>
@@ -34739,7 +34739,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" t="str">
         <f t="shared" si="4"/>
         <v>VCT</v>
@@ -34767,7 +34767,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" t="str">
         <f t="shared" si="4"/>
         <v>WSM</v>
@@ -34795,7 +34795,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" t="str">
         <f t="shared" si="4"/>
         <v>SMR</v>
@@ -34823,7 +34823,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" t="str">
         <f t="shared" si="4"/>
         <v>STP</v>
@@ -34851,7 +34851,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" t="str">
         <f t="shared" si="4"/>
         <v>SAU</v>
@@ -34879,7 +34879,7 @@
         <v>2029</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" t="str">
         <f t="shared" si="4"/>
         <v>SEN</v>
@@ -34907,7 +34907,7 @@
         <v>2031</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" t="str">
         <f t="shared" si="4"/>
         <v>SRB</v>
@@ -34935,7 +34935,7 @@
         <v>2033</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" t="str">
         <f t="shared" si="4"/>
         <v>SYC</v>
@@ -34963,7 +34963,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" t="str">
         <f t="shared" si="4"/>
         <v>SLE</v>
@@ -34991,7 +34991,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" t="str">
         <f t="shared" ref="A194:A241" si="6">RIGHT(E194, 3)</f>
         <v>SGP</v>
@@ -35019,7 +35019,7 @@
         <v>2039</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" t="str">
         <f t="shared" si="6"/>
         <v>SXM</v>
@@ -35047,7 +35047,7 @@
         <v>2042</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" t="str">
         <f t="shared" si="6"/>
         <v>SVK</v>
@@ -35075,7 +35075,7 @@
         <v>2044</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" t="str">
         <f t="shared" si="6"/>
         <v>SVN</v>
@@ -35103,7 +35103,7 @@
         <v>2046</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" t="str">
         <f t="shared" si="6"/>
         <v>SLB</v>
@@ -35131,7 +35131,7 @@
         <v>2048</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" t="str">
         <f t="shared" si="6"/>
         <v>SOM</v>
@@ -35159,7 +35159,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" t="str">
         <f t="shared" si="6"/>
         <v>ZAF</v>
@@ -35187,7 +35187,7 @@
         <v>2052</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" t="str">
         <f t="shared" si="6"/>
         <v>KOR</v>
@@ -35215,7 +35215,7 @@
         <v>2054</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" t="str">
         <f t="shared" si="6"/>
         <v>SSD</v>
@@ -35243,7 +35243,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" t="str">
         <f t="shared" si="6"/>
         <v>ESP</v>
@@ -35271,7 +35271,7 @@
         <v>2058</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" t="str">
         <f t="shared" si="6"/>
         <v>LKA</v>
@@ -35299,7 +35299,7 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" t="str">
         <f t="shared" si="6"/>
         <v>SDN</v>
@@ -35327,7 +35327,7 @@
         <v>2062</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" t="str">
         <f t="shared" si="6"/>
         <v>SUR</v>
@@ -35355,7 +35355,7 @@
         <v>2064</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" t="str">
         <f t="shared" si="6"/>
         <v>SJM</v>
@@ -35380,7 +35380,7 @@
         <v>62049</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" t="str">
         <f t="shared" si="6"/>
         <v>SWZ</v>
@@ -35408,7 +35408,7 @@
         <v>2067</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" t="str">
         <f t="shared" si="6"/>
         <v>SWE</v>
@@ -35436,7 +35436,7 @@
         <v>2069</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" t="str">
         <f t="shared" si="6"/>
         <v>CHE</v>
@@ -35464,7 +35464,7 @@
         <v>2071</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" t="str">
         <f t="shared" si="6"/>
         <v>SYR</v>
@@ -35492,7 +35492,7 @@
         <v>2073</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" t="str">
         <f t="shared" si="6"/>
         <v>TWN</v>
@@ -35520,7 +35520,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" t="str">
         <f t="shared" si="6"/>
         <v>TJK</v>
@@ -35548,7 +35548,7 @@
         <v>2077</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" t="str">
         <f t="shared" si="6"/>
         <v>TZA</v>
@@ -35576,7 +35576,7 @@
         <v>2079</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" t="str">
         <f t="shared" si="6"/>
         <v>THA</v>
@@ -35604,7 +35604,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" t="str">
         <f t="shared" si="6"/>
         <v>TGO</v>
@@ -35632,7 +35632,7 @@
         <v>2083</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" t="str">
         <f t="shared" si="6"/>
         <v>TKL</v>
@@ -35657,7 +35657,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" t="str">
         <f t="shared" si="6"/>
         <v>TON</v>
@@ -35685,7 +35685,7 @@
         <v>2086</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" t="str">
         <f t="shared" si="6"/>
         <v>TTO</v>
@@ -35713,7 +35713,7 @@
         <v>2089</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" t="str">
         <f t="shared" si="6"/>
         <v>TUN</v>
@@ -35741,7 +35741,7 @@
         <v>2091</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" t="str">
         <f t="shared" si="6"/>
         <v>TUR</v>
@@ -35769,7 +35769,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" t="str">
         <f t="shared" si="6"/>
         <v>TKM</v>
@@ -35797,7 +35797,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" t="str">
         <f t="shared" si="6"/>
         <v>TCA</v>
@@ -35822,7 +35822,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" t="str">
         <f t="shared" si="6"/>
         <v>TUV</v>
@@ -35850,7 +35850,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" t="str">
         <f t="shared" si="6"/>
         <v>VIR</v>
@@ -35875,7 +35875,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" t="str">
         <f t="shared" si="6"/>
         <v>UGA</v>
@@ -35903,7 +35903,7 @@
         <v>2103</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" t="str">
         <f t="shared" si="6"/>
         <v>UKR</v>
@@ -35931,7 +35931,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" t="str">
         <f t="shared" si="6"/>
         <v>ARE</v>
@@ -35959,7 +35959,7 @@
         <v>2107</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" t="str">
         <f t="shared" si="6"/>
         <v>GBR</v>
@@ -35987,7 +35987,7 @@
         <v>2109</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" t="str">
         <f t="shared" si="6"/>
         <v>USA</v>
@@ -36015,7 +36015,7 @@
         <v>2111</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" t="str">
         <f t="shared" si="6"/>
         <v>URY</v>
@@ -36043,7 +36043,7 @@
         <v>2113</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" t="str">
         <f t="shared" si="6"/>
         <v>UZB</v>
@@ -36071,7 +36071,7 @@
         <v>2115</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" t="str">
         <f t="shared" si="6"/>
         <v>VUT</v>
@@ -36099,7 +36099,7 @@
         <v>2117</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" t="str">
         <f t="shared" si="6"/>
         <v>VAT</v>
@@ -36124,7 +36124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" t="str">
         <f t="shared" si="6"/>
         <v>VEN</v>
@@ -36152,7 +36152,7 @@
         <v>2121</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" t="str">
         <f t="shared" si="6"/>
         <v>VNM</v>
@@ -36180,7 +36180,7 @@
         <v>2123</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" t="str">
         <f t="shared" si="6"/>
         <v>WLF</v>
@@ -36205,7 +36205,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" t="str">
         <f t="shared" si="6"/>
         <v>ESH</v>
@@ -36230,7 +36230,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" t="str">
         <f t="shared" si="6"/>
         <v>YEM</v>
@@ -36258,7 +36258,7 @@
         <v>2127</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" t="str">
         <f t="shared" si="6"/>
         <v>ZMB</v>
@@ -36286,7 +36286,7 @@
         <v>2129</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" t="str">
         <f t="shared" si="6"/>
         <v>ZWE</v>
@@ -36314,13 +36314,13 @@
         <v>2131</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" s="9" t="str">
-        <f>RIGHT(E242, 3)</f>
+        <f t="shared" ref="A242:A253" si="8">RIGHT(E242, 3)</f>
         <v>ALA</v>
       </c>
       <c r="B242" s="9" t="str">
-        <f>LEFT(E242, 2)</f>
+        <f t="shared" ref="B242:B253" si="9">LEFT(E242, 2)</f>
         <v>AX</v>
       </c>
       <c r="C242" t="s">
@@ -36333,13 +36333,13 @@
         <v>2134</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" s="9" t="str">
-        <f>RIGHT(E243, 3)</f>
+        <f t="shared" si="8"/>
         <v>BES</v>
       </c>
       <c r="B243" s="9" t="str">
-        <f>LEFT(E243, 2)</f>
+        <f t="shared" si="9"/>
         <v>BQ</v>
       </c>
       <c r="C243" t="s">
@@ -36352,13 +36352,13 @@
         <v>2136</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" s="9" t="str">
-        <f>RIGHT(E244, 3)</f>
+        <f t="shared" si="8"/>
         <v>NFK</v>
       </c>
       <c r="B244" s="9" t="str">
-        <f>LEFT(E244, 2)</f>
+        <f t="shared" si="9"/>
         <v>NF</v>
       </c>
       <c r="C244" t="s">
@@ -36371,13 +36371,13 @@
         <v>2138</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="9" t="str">
-        <f>RIGHT(E245, 3)</f>
+        <f t="shared" si="8"/>
         <v>SCG</v>
       </c>
       <c r="B245" s="9" t="str">
-        <f>LEFT(E245, 2)</f>
+        <f t="shared" si="9"/>
         <v>CS</v>
       </c>
       <c r="C245" t="s">
@@ -36390,13 +36390,13 @@
         <v>2140</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="9" t="str">
-        <f>RIGHT(E246, 3)</f>
+        <f t="shared" si="8"/>
         <v>BVT</v>
       </c>
       <c r="B246" s="9" t="str">
-        <f>LEFT(E246, 2)</f>
+        <f t="shared" si="9"/>
         <v>BV</v>
       </c>
       <c r="C246" t="s">
@@ -36409,13 +36409,13 @@
         <v>2142</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" s="9" t="str">
-        <f>RIGHT(E247, 3)</f>
+        <f t="shared" si="8"/>
         <v>GUF</v>
       </c>
       <c r="B247" s="9" t="str">
-        <f>LEFT(E247, 2)</f>
+        <f t="shared" si="9"/>
         <v>GF</v>
       </c>
       <c r="C247" t="s">
@@ -36428,13 +36428,13 @@
         <v>2145</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="9" t="str">
-        <f>RIGHT(E248, 3)</f>
+        <f t="shared" si="8"/>
         <v>ATF</v>
       </c>
       <c r="B248" s="9" t="str">
-        <f>LEFT(E248, 2)</f>
+        <f t="shared" si="9"/>
         <v>TF</v>
       </c>
       <c r="C248" t="s">
@@ -36447,13 +36447,13 @@
         <v>2147</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" s="9" t="str">
-        <f>RIGHT(E249, 3)</f>
+        <f t="shared" si="8"/>
         <v>GLP</v>
       </c>
       <c r="B249" s="9" t="str">
-        <f>LEFT(E249, 2)</f>
+        <f t="shared" si="9"/>
         <v>GP</v>
       </c>
       <c r="C249" t="s">
@@ -36466,13 +36466,13 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" s="9" t="str">
-        <f>RIGHT(E250, 3)</f>
+        <f t="shared" si="8"/>
         <v>HMD</v>
       </c>
       <c r="B250" s="9" t="str">
-        <f>LEFT(E250, 2)</f>
+        <f t="shared" si="9"/>
         <v>HM</v>
       </c>
       <c r="C250" t="s">
@@ -36485,13 +36485,13 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" s="9" t="str">
-        <f>RIGHT(E251, 3)</f>
+        <f t="shared" si="8"/>
         <v>MTQ</v>
       </c>
       <c r="B251" s="9" t="str">
-        <f>LEFT(E251, 2)</f>
+        <f t="shared" si="9"/>
         <v>MQ</v>
       </c>
       <c r="C251" t="s">
@@ -36504,13 +36504,13 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" s="9" t="str">
-        <f>RIGHT(E252, 3)</f>
+        <f t="shared" si="8"/>
         <v>UMI</v>
       </c>
       <c r="B252" s="9" t="str">
-        <f>LEFT(E252, 2)</f>
+        <f t="shared" si="9"/>
         <v>UM</v>
       </c>
       <c r="C252" t="s">
@@ -36523,13 +36523,13 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" s="9" t="str">
-        <f>RIGHT(E253, 3)</f>
+        <f t="shared" si="8"/>
         <v>SGS</v>
       </c>
       <c r="B253" s="9" t="str">
-        <f>LEFT(E253, 2)</f>
+        <f t="shared" si="9"/>
         <v>GS</v>
       </c>
       <c r="C253" t="s">
